--- a/市場_2025改修/ソース/master.xlsx
+++ b/市場_2025改修/ソース/master.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_Work\Git\Git001\市場_2025改修\ソース\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_Work\Git\si001\市場_2025改修\ソース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A73E36-7DEE-4925-8A76-FC4E742C9624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA086E4-CDCA-428E-A827-E5CC18B8B2E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="白紙" sheetId="23" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2733" uniqueCount="660">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2740" uniqueCount="664">
   <si>
     <t>テナント名称</t>
   </si>
@@ -1171,9 +1171,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>姫路大同青果㈱</t>
-  </si>
-  <si>
     <t>丸魚水産㈱</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -3032,6 +3029,21 @@
       <t>ヒ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1696</t>
+  </si>
+  <si>
+    <t>003</t>
+  </si>
+  <si>
+    <t>1:普通預金</t>
+  </si>
+  <si>
+    <t>11111</t>
+  </si>
+  <si>
+    <t>ﾀﾞｲﾄﾞｳｾｲｶ</t>
   </si>
 </sst>
 </file>
@@ -3774,10 +3786,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D9" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E9">
         <v>1968</v>
@@ -5021,27 +5033,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
   </sheetData>
@@ -5068,1446 +5080,1446 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B1" t="s">
         <v>443</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>444</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>445</v>
-      </c>
-      <c r="D1" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="16.5">
       <c r="A2" s="13" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B2">
         <v>1696</v>
       </c>
       <c r="C2" s="14" t="s">
+        <v>447</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>448</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="16.5">
       <c r="A3" s="13" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B3">
         <v>1696</v>
       </c>
       <c r="C3" s="14" t="s">
+        <v>449</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>450</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="16.5">
       <c r="A4" s="13" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B4">
         <v>1696</v>
       </c>
       <c r="C4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="16.5">
       <c r="A5" s="13" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B5">
         <v>1696</v>
       </c>
       <c r="C5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="J5" s="8"/>
     </row>
     <row r="6" spans="1:10" ht="16.5">
       <c r="A6" s="13" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B6">
         <v>1696</v>
       </c>
       <c r="C6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="J6" s="8"/>
     </row>
     <row r="7" spans="1:10" ht="16.5">
       <c r="A7" s="13" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B7">
         <v>1696</v>
       </c>
       <c r="C7" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="16.5">
       <c r="A8" s="13" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B8">
         <v>1696</v>
       </c>
       <c r="C8" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="16.5">
       <c r="A9" s="13" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B9">
         <v>1696</v>
       </c>
       <c r="C9" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="16.5">
       <c r="A10" s="13" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B10">
         <v>1696</v>
       </c>
       <c r="C10" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="16.5">
       <c r="A11" s="13" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B11">
         <v>1696</v>
       </c>
       <c r="C11" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="16.5">
       <c r="A12" s="13" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B12">
         <v>1696</v>
       </c>
       <c r="C12" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="16.5">
       <c r="A13" s="13" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B13">
         <v>1696</v>
       </c>
       <c r="C13" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="16.5">
       <c r="A14" s="13" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B14">
         <v>1696</v>
       </c>
       <c r="C14" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="16.5">
       <c r="A15" s="13" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B15">
         <v>1696</v>
       </c>
       <c r="C15" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="16.5">
       <c r="A16" s="13" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B16">
         <v>1696</v>
       </c>
       <c r="C16" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="16.5">
       <c r="A17" s="13" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B17">
         <v>1696</v>
       </c>
       <c r="C17" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="16.5">
       <c r="A18" s="13" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B18">
         <v>1696</v>
       </c>
       <c r="C18" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="16.5">
       <c r="A19" s="13" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B19">
         <v>1696</v>
       </c>
       <c r="C19" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="16.5">
       <c r="A20" s="13" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B20">
         <v>1696</v>
       </c>
       <c r="C20" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="16.5">
       <c r="A21" s="13" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B21">
         <v>1696</v>
       </c>
       <c r="C21" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="16.5">
       <c r="A22" s="13" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B22">
         <v>1696</v>
       </c>
       <c r="C22" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="16.5">
       <c r="A23" s="13" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B23">
         <v>1696</v>
       </c>
       <c r="C23" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="16.5">
       <c r="A24" s="13" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B24">
         <v>1696</v>
       </c>
       <c r="C24" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="16.5">
       <c r="A25" s="13" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B25">
         <v>1696</v>
       </c>
       <c r="C25" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="16.5">
       <c r="A26" s="13" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B26">
         <v>1696</v>
       </c>
       <c r="C26" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="16.5">
       <c r="A27" s="13" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B27">
         <v>1696</v>
       </c>
       <c r="C27" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="16.5">
       <c r="A28" s="13" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B28">
         <v>1696</v>
       </c>
       <c r="C28" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="16.5">
       <c r="A29" s="13" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B29">
         <v>1696</v>
       </c>
       <c r="C29" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="16.5">
       <c r="A30" s="13" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B30">
         <v>1696</v>
       </c>
       <c r="C30" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="16.5">
       <c r="A31" s="13" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B31">
         <v>1696</v>
       </c>
       <c r="C31" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="16.5">
       <c r="A32" s="13" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B32">
         <v>1696</v>
       </c>
       <c r="C32" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="16.5">
       <c r="A33" s="13" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B33">
         <v>1696</v>
       </c>
       <c r="C33" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="16.5">
       <c r="A34" s="13" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B34">
         <v>1696</v>
       </c>
       <c r="C34" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="16.5">
       <c r="A35" s="13" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B35">
         <v>1696</v>
       </c>
       <c r="C35" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="16.5">
       <c r="A36" s="13" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B36">
         <v>1686</v>
       </c>
       <c r="C36" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="16.5">
       <c r="A37" s="13" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B37">
         <v>1686</v>
       </c>
       <c r="C37" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="16.5">
       <c r="A38" s="13" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B38">
         <v>1686</v>
       </c>
       <c r="C38" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="16.5">
       <c r="A39" s="13" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B39">
         <v>1686</v>
       </c>
       <c r="C39" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="16.5">
       <c r="A40" s="13" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B40">
         <v>1686</v>
       </c>
       <c r="C40" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="16.5">
       <c r="A41" s="13" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B41">
         <v>1686</v>
       </c>
       <c r="C41" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="16.5">
       <c r="A42" s="13" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B42">
         <v>1686</v>
       </c>
       <c r="C42" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="16.5">
       <c r="A43" s="13" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B43">
         <v>1686</v>
       </c>
       <c r="C43" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="16.5">
       <c r="A44" s="13" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B44">
         <v>1686</v>
       </c>
       <c r="C44" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="16.5">
       <c r="A45" s="13" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B45">
         <v>1686</v>
       </c>
       <c r="C45" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="16.5">
       <c r="A46" s="13" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B46">
         <v>1686</v>
       </c>
       <c r="C46" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="16.5">
       <c r="A47" s="13" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B47">
         <v>1686</v>
       </c>
       <c r="C47" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="16.5">
       <c r="A48" s="13" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B48">
         <v>1686</v>
       </c>
       <c r="C48" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="16.5">
       <c r="A49" s="13" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B49">
         <v>1686</v>
       </c>
       <c r="C49" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="16.5">
       <c r="A50" s="13" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B50">
         <v>1686</v>
       </c>
       <c r="C50" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="16.5">
       <c r="A51" s="13" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B51">
         <v>1686</v>
       </c>
       <c r="C51" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="16.5">
       <c r="A52" s="13" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B52">
         <v>1686</v>
       </c>
       <c r="C52" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="16.5">
       <c r="A53" s="13" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B53">
         <v>1686</v>
       </c>
       <c r="C53" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="16.5">
       <c r="A54" s="13" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B54">
         <v>1686</v>
       </c>
       <c r="C54" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="16.5">
       <c r="A55" s="13" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B55">
         <v>1686</v>
       </c>
       <c r="C55" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="16.5">
       <c r="A56" s="13" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B56">
         <v>1686</v>
       </c>
       <c r="C56" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="16.5">
       <c r="A57" s="13" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B57">
         <v>1686</v>
       </c>
       <c r="C57" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="16.5">
       <c r="A58" s="13" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B58">
         <v>1686</v>
       </c>
       <c r="C58" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="16.5">
       <c r="A59" s="13" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B59">
         <v>1686</v>
       </c>
       <c r="C59" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="16.5">
       <c r="A60" s="13" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B60">
         <v>1686</v>
       </c>
       <c r="C60" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="16.5">
       <c r="A61" s="13" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B61">
         <v>1686</v>
       </c>
       <c r="C61" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="16.5">
       <c r="A62" s="13" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B62">
         <v>1686</v>
       </c>
       <c r="C62" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="16.5">
       <c r="A63" s="13" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B63">
         <v>1686</v>
       </c>
       <c r="C63" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="16.5">
       <c r="A64" s="13" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B64">
         <v>1686</v>
       </c>
       <c r="C64" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="16.5">
       <c r="A65" s="13" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B65">
         <v>1686</v>
       </c>
       <c r="C65" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="16.5">
       <c r="A66" s="13" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B66">
         <v>1686</v>
       </c>
       <c r="C66" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="16.5">
       <c r="A67" s="13" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B67">
         <v>1686</v>
       </c>
       <c r="C67" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="16.5">
       <c r="A68" s="13" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B68">
         <v>1686</v>
       </c>
       <c r="C68" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="16.5">
       <c r="A69" s="13" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B69">
         <v>1686</v>
       </c>
       <c r="C69" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="16.5">
       <c r="A70" s="13" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B70">
         <v>1686</v>
       </c>
       <c r="C70" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="16.5">
       <c r="A71" s="13" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B71">
         <v>1686</v>
       </c>
       <c r="C71" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="16.5">
       <c r="A72" s="13" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B72">
         <v>1686</v>
       </c>
       <c r="C72" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="16.5">
       <c r="A73" s="13" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B73">
         <v>1686</v>
       </c>
       <c r="C73" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="16.5">
       <c r="A74" s="13" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B74">
         <v>1686</v>
       </c>
       <c r="C74" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="16.5">
       <c r="A75" s="13" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B75">
         <v>1686</v>
       </c>
       <c r="C75" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="16.5">
       <c r="A76" s="13" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B76">
         <v>1686</v>
       </c>
       <c r="C76" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="16.5">
       <c r="A77" s="13" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B77">
         <v>1686</v>
       </c>
       <c r="C77" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="16.5">
       <c r="A78" s="13" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B78">
         <v>1686</v>
       </c>
       <c r="C78" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="16.5">
       <c r="A79" s="13" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B79">
         <v>1686</v>
       </c>
       <c r="C79" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="16.5">
       <c r="A80" s="13" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B80">
         <v>1686</v>
       </c>
       <c r="C80" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="16.5">
       <c r="A81" s="13" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B81">
         <v>1686</v>
       </c>
       <c r="C81" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="16.5">
       <c r="A82" s="13" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B82">
         <v>1686</v>
       </c>
       <c r="C82" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="16.5">
       <c r="A83" s="13" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B83">
         <v>1686</v>
       </c>
       <c r="C83" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="16.5">
       <c r="A84" s="13" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B84">
         <v>1686</v>
       </c>
       <c r="C84" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="16.5">
       <c r="A85" s="13" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B85">
         <v>1686</v>
       </c>
       <c r="C85" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="16.5">
       <c r="A86" s="13" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B86">
         <v>1686</v>
       </c>
       <c r="C86" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="16.5">
       <c r="A87" s="13" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B87">
         <v>1686</v>
       </c>
       <c r="C87" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="16.5">
       <c r="A88" s="13" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B88">
         <v>1686</v>
       </c>
       <c r="C88" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="16.5">
       <c r="A89" s="13" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B89">
         <v>1686</v>
       </c>
       <c r="C89" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="16.5">
       <c r="A90" s="13" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B90">
         <v>1686</v>
       </c>
       <c r="C90" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="16.5">
       <c r="A91" s="13" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B91">
         <v>1686</v>
       </c>
       <c r="C91" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="16.5">
       <c r="A92" s="13" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B92">
         <v>1686</v>
       </c>
       <c r="C92" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="16.5">
       <c r="A93" s="13" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B93">
         <v>1686</v>
       </c>
       <c r="C93" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="16.5">
       <c r="A94" s="13" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B94">
         <v>1686</v>
       </c>
       <c r="C94" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="16.5">
       <c r="A95" s="13" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B95">
         <v>1686</v>
       </c>
       <c r="C95" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="16.5">
       <c r="A96" s="13" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B96">
         <v>1686</v>
       </c>
       <c r="C96" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="16.5">
       <c r="A97" s="13" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B97">
         <v>1686</v>
       </c>
       <c r="C97" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="16.5">
       <c r="A98" s="13" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B98">
         <v>1686</v>
       </c>
       <c r="C98" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="16.5">
       <c r="A99" s="13" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B99">
         <v>1686</v>
       </c>
       <c r="C99" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="16.5">
       <c r="A100" s="13" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B100">
         <v>1686</v>
       </c>
       <c r="C100" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="16.5">
       <c r="A101" s="13" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B101">
         <v>1686</v>
       </c>
       <c r="C101" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="16.5">
       <c r="A102" s="13" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B102">
         <v>1686</v>
       </c>
       <c r="C102" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="16.5">
       <c r="A103" s="13" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B103">
         <v>1686</v>
       </c>
       <c r="C103" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
   </sheetData>
@@ -6548,7 +6560,7 @@
         <v>42</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -6556,7 +6568,7 @@
         <v>43</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -6621,7 +6633,7 @@
         <v>68</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F8" s="3">
         <v>1</v>
@@ -6641,7 +6653,7 @@
         <v>69</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F9" s="3">
         <v>2</v>
@@ -6661,7 +6673,7 @@
         <v>70</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3" t="s">
@@ -6677,7 +6689,7 @@
         <v>71</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3" t="s">
@@ -6693,7 +6705,7 @@
         <v>72</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F12" s="3">
         <v>3</v>
@@ -6713,7 +6725,7 @@
         <v>73</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -6721,7 +6733,7 @@
         <v>89</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C14" t="s">
         <v>88</v>
@@ -6729,7 +6741,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="B15" s="7" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -6737,34 +6749,34 @@
         <v>76</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B20">
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C21" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C22" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
   </sheetData>
@@ -6808,25 +6820,25 @@
         <v>186</v>
       </c>
       <c r="E1" t="s">
+        <v>433</v>
+      </c>
+      <c r="F1" t="s">
         <v>434</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>435</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>436</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>437</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>438</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>439</v>
-      </c>
-      <c r="K1" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -6842,13 +6854,34 @@
       <c r="D2" s="11" t="s">
         <v>183</v>
       </c>
+      <c r="E2" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>659</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>660</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>661</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>662</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>663</v>
+      </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3">
         <v>1002</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>183</v>
@@ -6862,7 +6895,7 @@
         <v>1003</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>183</v>
@@ -7063,7 +7096,7 @@
         <v>2023</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>183</v>
@@ -7457,8 +7490,8 @@
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
-        <v>188</v>
+      <c r="E2" s="7" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -7474,8 +7507,8 @@
       <c r="D3">
         <v>1</v>
       </c>
-      <c r="E3" t="s">
-        <v>188</v>
+      <c r="E3" s="7" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -7491,8 +7524,8 @@
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4" t="s">
-        <v>188</v>
+      <c r="E4" s="7" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7508,8 +7541,8 @@
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="E5" t="s">
-        <v>188</v>
+      <c r="E5" s="7" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -7525,8 +7558,8 @@
       <c r="D6">
         <v>1</v>
       </c>
-      <c r="E6" t="s">
-        <v>188</v>
+      <c r="E6" s="7" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -7542,8 +7575,8 @@
       <c r="D7">
         <v>1</v>
       </c>
-      <c r="E7" t="s">
-        <v>188</v>
+      <c r="E7" s="7" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -7559,8 +7592,8 @@
       <c r="D8">
         <v>1</v>
       </c>
-      <c r="E8" t="s">
-        <v>188</v>
+      <c r="E8" s="7" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -7576,8 +7609,8 @@
       <c r="D9">
         <v>1</v>
       </c>
-      <c r="E9" t="s">
-        <v>188</v>
+      <c r="E9" s="7" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -7594,7 +7627,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -7611,7 +7644,7 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -7628,7 +7661,7 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -7645,7 +7678,7 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -7662,7 +7695,7 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -7679,7 +7712,7 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -7696,7 +7729,7 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -7713,7 +7746,7 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -7730,7 +7763,7 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -7747,7 +7780,7 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -7764,7 +7797,7 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -7781,7 +7814,7 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -7798,7 +7831,7 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -7815,7 +7848,7 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -7832,7 +7865,7 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -7849,7 +7882,7 @@
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -7866,7 +7899,7 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -7883,7 +7916,7 @@
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -9158,7 +9191,7 @@
         <v>1</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -10556,10 +10589,10 @@
         <v>2004</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -10582,10 +10615,10 @@
         <v>2004</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -10611,10 +10644,10 @@
         <v>2004</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="J4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -10643,10 +10676,10 @@
         <v>2001</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -10669,10 +10702,10 @@
         <v>2001</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -10698,10 +10731,10 @@
         <v>2001</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -10730,7 +10763,7 @@
         <v>96</v>
       </c>
       <c r="J8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -10756,7 +10789,7 @@
         <v>96</v>
       </c>
       <c r="J9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -10785,7 +10818,7 @@
         <v>96</v>
       </c>
       <c r="J10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -10814,7 +10847,7 @@
         <v>94</v>
       </c>
       <c r="J11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -10840,7 +10873,7 @@
         <v>94</v>
       </c>
       <c r="J12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -10869,7 +10902,7 @@
         <v>94</v>
       </c>
       <c r="J13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -10895,10 +10928,10 @@
         <v>2023</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J14" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -10921,10 +10954,10 @@
         <v>2023</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J15" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -10950,10 +10983,10 @@
         <v>2023</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J16" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -10979,10 +11012,10 @@
         <v>2023</v>
       </c>
       <c r="I17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J17" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -11005,10 +11038,10 @@
         <v>2023</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J18" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -11034,10 +11067,10 @@
         <v>2023</v>
       </c>
       <c r="I19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J19" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -11060,10 +11093,10 @@
         <v>2023</v>
       </c>
       <c r="I20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -11089,10 +11122,10 @@
         <v>2023</v>
       </c>
       <c r="I21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J21" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -11118,10 +11151,10 @@
         <v>2023</v>
       </c>
       <c r="I22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J22" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -11144,10 +11177,10 @@
         <v>2023</v>
       </c>
       <c r="I23" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J23" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -11176,7 +11209,7 @@
         <v>103</v>
       </c>
       <c r="J24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -11202,7 +11235,7 @@
         <v>103</v>
       </c>
       <c r="J25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -11231,7 +11264,7 @@
         <v>103</v>
       </c>
       <c r="J26" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -11260,7 +11293,7 @@
         <v>98</v>
       </c>
       <c r="J27" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -11286,7 +11319,7 @@
         <v>98</v>
       </c>
       <c r="J28" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K28">
         <v>1</v>
@@ -11315,7 +11348,7 @@
         <v>98</v>
       </c>
       <c r="J29" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -11344,7 +11377,7 @@
         <v>95</v>
       </c>
       <c r="J30" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K30">
         <v>2</v>
@@ -11370,7 +11403,7 @@
         <v>95</v>
       </c>
       <c r="J31" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K31">
         <v>1</v>
@@ -11399,7 +11432,7 @@
         <v>95</v>
       </c>
       <c r="J32" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -11428,7 +11461,7 @@
         <v>97</v>
       </c>
       <c r="J33" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K33">
         <v>2</v>
@@ -11454,7 +11487,7 @@
         <v>97</v>
       </c>
       <c r="J34" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K34">
         <v>1</v>
@@ -11483,7 +11516,7 @@
         <v>97</v>
       </c>
       <c r="J35" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -11509,10 +11542,10 @@
         <v>2023</v>
       </c>
       <c r="I36" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J36" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="K36">
         <v>2</v>
@@ -11535,10 +11568,10 @@
         <v>2023</v>
       </c>
       <c r="I37" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J37" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="K37">
         <v>1</v>
@@ -11564,10 +11597,10 @@
         <v>2023</v>
       </c>
       <c r="I38" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J38" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="K38">
         <v>3</v>
@@ -11593,10 +11626,10 @@
         <v>2023</v>
       </c>
       <c r="I39" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J39" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="K39">
         <v>2</v>
@@ -11619,10 +11652,10 @@
         <v>2023</v>
       </c>
       <c r="I40" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J40" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="K40">
         <v>1</v>
@@ -11648,10 +11681,10 @@
         <v>2023</v>
       </c>
       <c r="I41" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J41" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="K41">
         <v>2</v>
@@ -11674,10 +11707,10 @@
         <v>2023</v>
       </c>
       <c r="I42" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J42" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="K42">
         <v>1</v>
@@ -11703,10 +11736,10 @@
         <v>2023</v>
       </c>
       <c r="I43" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J43" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="K43">
         <v>3</v>
@@ -11732,10 +11765,10 @@
         <v>2023</v>
       </c>
       <c r="I44" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J44" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K44">
         <v>2</v>
@@ -11758,10 +11791,10 @@
         <v>2023</v>
       </c>
       <c r="I45" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J45" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K45">
         <v>1</v>
@@ -11790,7 +11823,7 @@
         <v>91</v>
       </c>
       <c r="J46" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="K46">
         <v>2</v>
@@ -11816,7 +11849,7 @@
         <v>91</v>
       </c>
       <c r="J47" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="K47">
         <v>1</v>
@@ -11845,7 +11878,7 @@
         <v>91</v>
       </c>
       <c r="J48" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="K48">
         <v>3</v>
@@ -11874,7 +11907,7 @@
         <v>91</v>
       </c>
       <c r="J49" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="K49">
         <v>2</v>
@@ -11900,7 +11933,7 @@
         <v>91</v>
       </c>
       <c r="J50" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="K50">
         <v>1</v>
@@ -11929,7 +11962,7 @@
         <v>108</v>
       </c>
       <c r="J51" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K51">
         <v>2</v>
@@ -11955,7 +11988,7 @@
         <v>108</v>
       </c>
       <c r="J52" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K52">
         <v>1</v>
@@ -11984,7 +12017,7 @@
         <v>108</v>
       </c>
       <c r="J53" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K53">
         <v>3</v>
@@ -12013,7 +12046,7 @@
         <v>104</v>
       </c>
       <c r="J54" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K54">
         <v>2</v>
@@ -12039,7 +12072,7 @@
         <v>104</v>
       </c>
       <c r="J55" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K55">
         <v>1</v>
@@ -12068,7 +12101,7 @@
         <v>104</v>
       </c>
       <c r="J56" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K56">
         <v>3</v>
@@ -12097,7 +12130,7 @@
         <v>107</v>
       </c>
       <c r="J57" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K57">
         <v>2</v>
@@ -12123,7 +12156,7 @@
         <v>107</v>
       </c>
       <c r="J58" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K58">
         <v>1</v>
@@ -12152,7 +12185,7 @@
         <v>107</v>
       </c>
       <c r="J59" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K59">
         <v>3</v>
@@ -12181,7 +12214,7 @@
         <v>111</v>
       </c>
       <c r="J60" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K60">
         <v>2</v>
@@ -12207,7 +12240,7 @@
         <v>111</v>
       </c>
       <c r="J61" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K61">
         <v>1</v>
@@ -12236,7 +12269,7 @@
         <v>111</v>
       </c>
       <c r="J62" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K62">
         <v>3</v>
@@ -12265,7 +12298,7 @@
         <v>92</v>
       </c>
       <c r="J63" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="K63">
         <v>2</v>
@@ -12291,7 +12324,7 @@
         <v>92</v>
       </c>
       <c r="J64" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="K64">
         <v>1</v>
@@ -12320,7 +12353,7 @@
         <v>92</v>
       </c>
       <c r="J65" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="K65">
         <v>3</v>
@@ -12349,7 +12382,7 @@
         <v>92</v>
       </c>
       <c r="J66" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="K66">
         <v>2</v>
@@ -12375,7 +12408,7 @@
         <v>92</v>
       </c>
       <c r="J67" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="K67">
         <v>1</v>
@@ -12404,7 +12437,7 @@
         <v>105</v>
       </c>
       <c r="J68" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K68">
         <v>2</v>
@@ -12430,7 +12463,7 @@
         <v>105</v>
       </c>
       <c r="J69" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K69">
         <v>1</v>
@@ -12459,7 +12492,7 @@
         <v>105</v>
       </c>
       <c r="J70" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K70">
         <v>3</v>
@@ -12488,7 +12521,7 @@
         <v>109</v>
       </c>
       <c r="J71" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K71">
         <v>2</v>
@@ -12514,7 +12547,7 @@
         <v>109</v>
       </c>
       <c r="J72" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K72">
         <v>1</v>
@@ -12543,7 +12576,7 @@
         <v>109</v>
       </c>
       <c r="J73" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K73">
         <v>3</v>
@@ -12572,7 +12605,7 @@
         <v>102</v>
       </c>
       <c r="J74" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K74">
         <v>2</v>
@@ -12598,7 +12631,7 @@
         <v>102</v>
       </c>
       <c r="J75" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K75">
         <v>1</v>
@@ -12627,7 +12660,7 @@
         <v>102</v>
       </c>
       <c r="J76" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K76">
         <v>3</v>
@@ -12653,10 +12686,10 @@
         <v>2017</v>
       </c>
       <c r="I77" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J77" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K77">
         <v>2</v>
@@ -12679,10 +12712,10 @@
         <v>2017</v>
       </c>
       <c r="I78" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J78" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K78">
         <v>1</v>
@@ -12708,10 +12741,10 @@
         <v>2017</v>
       </c>
       <c r="I79" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J79" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K79">
         <v>3</v>
@@ -12736,11 +12769,11 @@
       <c r="H80">
         <v>1001</v>
       </c>
-      <c r="I80" t="s">
-        <v>188</v>
+      <c r="I80" s="7" t="s">
+        <v>182</v>
       </c>
       <c r="J80" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K80">
         <v>2</v>
@@ -12762,11 +12795,11 @@
       <c r="H81">
         <v>1001</v>
       </c>
-      <c r="I81" t="s">
-        <v>188</v>
+      <c r="I81" s="7" t="s">
+        <v>182</v>
       </c>
       <c r="J81" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K81">
         <v>1</v>
@@ -12788,11 +12821,11 @@
       <c r="H82">
         <v>1001</v>
       </c>
-      <c r="I82" t="s">
-        <v>188</v>
+      <c r="I82" s="7" t="s">
+        <v>182</v>
       </c>
       <c r="J82" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K82">
         <v>1</v>
@@ -12817,11 +12850,11 @@
       <c r="H83">
         <v>1001</v>
       </c>
-      <c r="I83" t="s">
-        <v>188</v>
+      <c r="I83" s="7" t="s">
+        <v>182</v>
       </c>
       <c r="J83" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K83">
         <v>3</v>
@@ -12846,11 +12879,11 @@
       <c r="H84">
         <v>1001</v>
       </c>
-      <c r="I84" t="s">
-        <v>188</v>
+      <c r="I84" s="7" t="s">
+        <v>182</v>
       </c>
       <c r="J84" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K84">
         <v>3</v>
@@ -12876,10 +12909,10 @@
         <v>7001</v>
       </c>
       <c r="I85" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J85" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K85">
         <v>2</v>
@@ -12905,10 +12938,10 @@
         <v>7001</v>
       </c>
       <c r="I86" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J86" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K86">
         <v>2</v>
@@ -12931,10 +12964,10 @@
         <v>7001</v>
       </c>
       <c r="I87" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J87" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K87">
         <v>1</v>
@@ -12957,10 +12990,10 @@
         <v>7001</v>
       </c>
       <c r="I88" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J88" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K88">
         <v>1</v>
@@ -12983,10 +13016,10 @@
         <v>7001</v>
       </c>
       <c r="I89" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J89" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K89">
         <v>1</v>
@@ -13009,10 +13042,10 @@
         <v>7001</v>
       </c>
       <c r="I90" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J90" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K90">
         <v>1</v>
@@ -13037,11 +13070,11 @@
       <c r="H91">
         <v>1001</v>
       </c>
-      <c r="I91" t="s">
-        <v>188</v>
+      <c r="I91" s="7" t="s">
+        <v>182</v>
       </c>
       <c r="J91" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K91">
         <v>2</v>
@@ -13063,11 +13096,11 @@
       <c r="H92">
         <v>1001</v>
       </c>
-      <c r="I92" t="s">
-        <v>188</v>
+      <c r="I92" s="7" t="s">
+        <v>182</v>
       </c>
       <c r="J92" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K92">
         <v>1</v>
@@ -13089,11 +13122,11 @@
       <c r="H93">
         <v>1001</v>
       </c>
-      <c r="I93" t="s">
-        <v>188</v>
+      <c r="I93" s="7" t="s">
+        <v>182</v>
       </c>
       <c r="J93" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K93">
         <v>1</v>
@@ -13122,7 +13155,7 @@
         <v>126</v>
       </c>
       <c r="J94" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K94">
         <v>2</v>
@@ -13148,7 +13181,7 @@
         <v>126</v>
       </c>
       <c r="J95" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K95">
         <v>1</v>
@@ -13177,7 +13210,7 @@
         <v>126</v>
       </c>
       <c r="J96" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K96">
         <v>3</v>
@@ -13206,7 +13239,7 @@
         <v>126</v>
       </c>
       <c r="J97" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K97">
         <v>2</v>
@@ -13232,7 +13265,7 @@
         <v>126</v>
       </c>
       <c r="J98" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K98">
         <v>1</v>
@@ -13261,7 +13294,7 @@
         <v>126</v>
       </c>
       <c r="J99" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K99">
         <v>3</v>
@@ -13290,7 +13323,7 @@
         <v>98</v>
       </c>
       <c r="J100" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K100">
         <v>2</v>
@@ -13316,7 +13349,7 @@
         <v>98</v>
       </c>
       <c r="J101" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K101">
         <v>1</v>
@@ -13345,7 +13378,7 @@
         <v>98</v>
       </c>
       <c r="J102" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K102">
         <v>3</v>
@@ -13371,10 +13404,10 @@
         <v>4005</v>
       </c>
       <c r="I103" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J103" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K103">
         <v>2</v>
@@ -13397,10 +13430,10 @@
         <v>4005</v>
       </c>
       <c r="I104" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J104" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K104">
         <v>1</v>
@@ -13426,10 +13459,10 @@
         <v>4005</v>
       </c>
       <c r="I105" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J105" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K105">
         <v>3</v>
@@ -13454,11 +13487,11 @@
       <c r="H106">
         <v>1001</v>
       </c>
-      <c r="I106" t="s">
-        <v>188</v>
+      <c r="I106" s="7" t="s">
+        <v>182</v>
       </c>
       <c r="J106" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K106">
         <v>2</v>
@@ -13483,11 +13516,11 @@
       <c r="H107">
         <v>1001</v>
       </c>
-      <c r="I107" t="s">
-        <v>188</v>
+      <c r="I107" s="7" t="s">
+        <v>182</v>
       </c>
       <c r="J107" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K107">
         <v>2</v>
@@ -13512,11 +13545,11 @@
       <c r="H108">
         <v>1001</v>
       </c>
-      <c r="I108" t="s">
-        <v>188</v>
+      <c r="I108" s="7" t="s">
+        <v>182</v>
       </c>
       <c r="J108" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K108">
         <v>2</v>
@@ -13541,11 +13574,11 @@
       <c r="H109">
         <v>1001</v>
       </c>
-      <c r="I109" t="s">
-        <v>188</v>
+      <c r="I109" s="7" t="s">
+        <v>182</v>
       </c>
       <c r="J109" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K109">
         <v>2</v>
@@ -13571,10 +13604,10 @@
         <v>7001</v>
       </c>
       <c r="I110" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J110" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="K110">
         <v>2</v>
@@ -13600,10 +13633,10 @@
         <v>7001</v>
       </c>
       <c r="I111" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J111" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="K111">
         <v>2</v>
@@ -13629,10 +13662,10 @@
         <v>7001</v>
       </c>
       <c r="I112" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J112" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K112">
         <v>2</v>
@@ -13658,10 +13691,10 @@
         <v>7001</v>
       </c>
       <c r="I113" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J113" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K113">
         <v>2</v>
@@ -13687,10 +13720,10 @@
         <v>7001</v>
       </c>
       <c r="I114" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J114" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K114">
         <v>2</v>
@@ -13716,10 +13749,10 @@
         <v>7001</v>
       </c>
       <c r="I115" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J115" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K115">
         <v>2</v>
@@ -13745,10 +13778,10 @@
         <v>7001</v>
       </c>
       <c r="I116" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J116" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K116">
         <v>2</v>
@@ -13774,10 +13807,10 @@
         <v>7001</v>
       </c>
       <c r="I117" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J117" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K117">
         <v>2</v>
@@ -13806,7 +13839,7 @@
         <v>121</v>
       </c>
       <c r="J118" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K118">
         <v>2</v>
@@ -13832,7 +13865,7 @@
         <v>121</v>
       </c>
       <c r="J119" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K119">
         <v>1</v>
@@ -13861,7 +13894,7 @@
         <v>121</v>
       </c>
       <c r="J120" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K120">
         <v>3</v>
@@ -13890,7 +13923,7 @@
         <v>123</v>
       </c>
       <c r="J121" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K121">
         <v>2</v>
@@ -13916,7 +13949,7 @@
         <v>123</v>
       </c>
       <c r="J122" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K122">
         <v>1</v>
@@ -13945,7 +13978,7 @@
         <v>123</v>
       </c>
       <c r="J123" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K123">
         <v>3</v>
@@ -13974,7 +14007,7 @@
         <v>123</v>
       </c>
       <c r="J124" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K124">
         <v>2</v>
@@ -14000,7 +14033,7 @@
         <v>123</v>
       </c>
       <c r="J125" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K125">
         <v>1</v>
@@ -14029,7 +14062,7 @@
         <v>123</v>
       </c>
       <c r="J126" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K126">
         <v>3</v>
@@ -14058,7 +14091,7 @@
         <v>124</v>
       </c>
       <c r="J127" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K127">
         <v>2</v>
@@ -14084,7 +14117,7 @@
         <v>124</v>
       </c>
       <c r="J128" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K128">
         <v>1</v>
@@ -14113,7 +14146,7 @@
         <v>124</v>
       </c>
       <c r="J129" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K129">
         <v>3</v>
@@ -14142,7 +14175,7 @@
         <v>122</v>
       </c>
       <c r="J130" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K130">
         <v>2</v>
@@ -14168,7 +14201,7 @@
         <v>122</v>
       </c>
       <c r="J131" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K131">
         <v>1</v>
@@ -14197,7 +14230,7 @@
         <v>122</v>
       </c>
       <c r="J132" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K132">
         <v>3</v>
@@ -14226,7 +14259,7 @@
         <v>122</v>
       </c>
       <c r="J133" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K133">
         <v>2</v>
@@ -14252,7 +14285,7 @@
         <v>122</v>
       </c>
       <c r="J134" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K134">
         <v>1</v>
@@ -14281,7 +14314,7 @@
         <v>122</v>
       </c>
       <c r="J135" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K135">
         <v>3</v>
@@ -14304,10 +14337,10 @@
         <v>7003</v>
       </c>
       <c r="I136" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J136" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K136">
         <v>1</v>
@@ -14333,10 +14366,10 @@
         <v>7003</v>
       </c>
       <c r="I137" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J137" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K137">
         <v>3</v>
@@ -14362,7 +14395,7 @@
         <v>93</v>
       </c>
       <c r="J138" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K138">
         <v>1</v>
@@ -14391,7 +14424,7 @@
         <v>93</v>
       </c>
       <c r="J139" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K139">
         <v>3</v>
@@ -14417,10 +14450,10 @@
         <v>7002</v>
       </c>
       <c r="I140" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J140" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K140">
         <v>2</v>
@@ -14443,10 +14476,10 @@
         <v>7002</v>
       </c>
       <c r="I141" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J141" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K141">
         <v>1</v>
@@ -14472,10 +14505,10 @@
         <v>7002</v>
       </c>
       <c r="I142" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J142" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K142">
         <v>3</v>
@@ -14500,11 +14533,11 @@
       <c r="H143">
         <v>1001</v>
       </c>
-      <c r="I143" t="s">
-        <v>188</v>
+      <c r="I143" s="7" t="s">
+        <v>182</v>
       </c>
       <c r="J143" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K143">
         <v>2</v>
@@ -14526,11 +14559,11 @@
       <c r="H144">
         <v>1001</v>
       </c>
-      <c r="I144" t="s">
-        <v>188</v>
+      <c r="I144" s="7" t="s">
+        <v>182</v>
       </c>
       <c r="J144" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K144">
         <v>1</v>
@@ -14555,11 +14588,11 @@
       <c r="H145">
         <v>1001</v>
       </c>
-      <c r="I145" t="s">
-        <v>188</v>
+      <c r="I145" s="7" t="s">
+        <v>182</v>
       </c>
       <c r="J145" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K145">
         <v>3</v>
@@ -14585,10 +14618,10 @@
         <v>7001</v>
       </c>
       <c r="I146" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J146" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K146">
         <v>2</v>
@@ -14614,10 +14647,10 @@
         <v>7003</v>
       </c>
       <c r="I147" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J147" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K147">
         <v>2</v>
@@ -14643,10 +14676,10 @@
         <v>7003</v>
       </c>
       <c r="I148" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J148" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K148">
         <v>2</v>
@@ -14672,10 +14705,10 @@
         <v>7001</v>
       </c>
       <c r="I149" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J149" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K149">
         <v>2</v>
@@ -14701,10 +14734,10 @@
         <v>7003</v>
       </c>
       <c r="I150" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J150" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K150">
         <v>2</v>
@@ -14727,10 +14760,10 @@
         <v>7001</v>
       </c>
       <c r="I151" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J151" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K151">
         <v>1</v>
@@ -14753,10 +14786,10 @@
         <v>7001</v>
       </c>
       <c r="I152" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J152" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K152">
         <v>1</v>
@@ -14779,10 +14812,10 @@
         <v>7001</v>
       </c>
       <c r="I153" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J153" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K153">
         <v>1</v>
@@ -14805,10 +14838,10 @@
         <v>7003</v>
       </c>
       <c r="I154" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J154" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K154">
         <v>1</v>
@@ -14831,10 +14864,10 @@
         <v>7003</v>
       </c>
       <c r="I155" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J155" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K155">
         <v>1</v>
@@ -14857,10 +14890,10 @@
         <v>7001</v>
       </c>
       <c r="I156" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J156" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K156">
         <v>1</v>
@@ -14883,10 +14916,10 @@
         <v>7001</v>
       </c>
       <c r="I157" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J157" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K157">
         <v>1</v>
@@ -14909,10 +14942,10 @@
         <v>7001</v>
       </c>
       <c r="I158" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J158" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K158">
         <v>1</v>
@@ -14935,10 +14968,10 @@
         <v>7003</v>
       </c>
       <c r="I159" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J159" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K159">
         <v>1</v>
@@ -14961,10 +14994,10 @@
         <v>7003</v>
       </c>
       <c r="I160" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J160" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K160">
         <v>1</v>
@@ -14987,10 +15020,10 @@
         <v>7001</v>
       </c>
       <c r="I161" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J161" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K161">
         <v>1</v>
@@ -15013,10 +15046,10 @@
         <v>7001</v>
       </c>
       <c r="I162" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J162" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K162">
         <v>1</v>
@@ -15039,10 +15072,10 @@
         <v>7001</v>
       </c>
       <c r="I163" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J163" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K163">
         <v>1</v>
@@ -15065,10 +15098,10 @@
         <v>7001</v>
       </c>
       <c r="I164" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J164" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K164">
         <v>1</v>
@@ -15091,10 +15124,10 @@
         <v>7001</v>
       </c>
       <c r="I165" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J165" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K165">
         <v>1</v>
@@ -15117,10 +15150,10 @@
         <v>7001</v>
       </c>
       <c r="I166" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J166" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K166">
         <v>1</v>
@@ -15146,10 +15179,10 @@
         <v>7001</v>
       </c>
       <c r="I167" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J167" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K167">
         <v>3</v>
@@ -15163,7 +15196,7 @@
         <v>55</v>
       </c>
       <c r="C168" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E168">
         <v>20</v>
@@ -15173,7 +15206,7 @@
       </c>
       <c r="I168" s="7"/>
       <c r="J168" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="K168">
         <v>3</v>
@@ -15190,7 +15223,7 @@
         <v>80</v>
       </c>
       <c r="C169" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D169">
         <v>10</v>
@@ -15200,7 +15233,7 @@
       </c>
       <c r="I169" s="7"/>
       <c r="J169" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="K169">
         <v>2</v>
@@ -15228,11 +15261,11 @@
       <c r="H170">
         <v>1001</v>
       </c>
-      <c r="I170" t="s">
-        <v>188</v>
+      <c r="I170" s="7" t="s">
+        <v>182</v>
       </c>
       <c r="J170" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K170">
         <v>2</v>
@@ -15257,11 +15290,11 @@
       <c r="H171">
         <v>1001</v>
       </c>
-      <c r="I171" t="s">
-        <v>188</v>
+      <c r="I171" s="7" t="s">
+        <v>182</v>
       </c>
       <c r="J171" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K171">
         <v>2</v>
@@ -15275,7 +15308,7 @@
         <v>80</v>
       </c>
       <c r="C172" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D172">
         <v>10</v>
@@ -15285,7 +15318,7 @@
       </c>
       <c r="I172" s="7"/>
       <c r="J172" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K172">
         <v>2</v>
@@ -15313,11 +15346,11 @@
       <c r="H173">
         <v>1001</v>
       </c>
-      <c r="I173" t="s">
-        <v>188</v>
+      <c r="I173" s="7" t="s">
+        <v>182</v>
       </c>
       <c r="J173" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K173">
         <v>2</v>
@@ -15331,7 +15364,7 @@
         <v>80</v>
       </c>
       <c r="C174" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D174">
         <v>10</v>
@@ -15341,7 +15374,7 @@
       </c>
       <c r="I174" s="7"/>
       <c r="J174" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K174">
         <v>2</v>
@@ -15367,7 +15400,7 @@
         <v>84</v>
       </c>
       <c r="J175" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K175">
         <v>2</v>
@@ -15395,11 +15428,11 @@
       <c r="H176">
         <v>1001</v>
       </c>
-      <c r="I176" t="s">
-        <v>188</v>
+      <c r="I176" s="7" t="s">
+        <v>182</v>
       </c>
       <c r="J176" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K176">
         <v>2</v>
@@ -15424,11 +15457,11 @@
       <c r="H177">
         <v>1001</v>
       </c>
-      <c r="I177" t="s">
-        <v>188</v>
+      <c r="I177" s="7" t="s">
+        <v>182</v>
       </c>
       <c r="J177" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K177">
         <v>2</v>
@@ -15448,7 +15481,7 @@
         <v>74</v>
       </c>
       <c r="J178" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K178">
         <v>1</v>
@@ -15473,11 +15506,11 @@
       <c r="H179">
         <v>1001</v>
       </c>
-      <c r="I179" t="s">
-        <v>188</v>
+      <c r="I179" s="7" t="s">
+        <v>182</v>
       </c>
       <c r="J179" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K179">
         <v>1</v>
@@ -15497,7 +15530,7 @@
         <v>74</v>
       </c>
       <c r="J180" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K180">
         <v>1</v>
@@ -15520,7 +15553,7 @@
         <v>74</v>
       </c>
       <c r="J181" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="K181">
         <v>1</v>
@@ -15543,7 +15576,7 @@
         <v>74</v>
       </c>
       <c r="J182" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="K182">
         <v>1</v>
@@ -15568,11 +15601,11 @@
       <c r="H183">
         <v>1001</v>
       </c>
-      <c r="I183" t="s">
-        <v>188</v>
+      <c r="I183" s="7" t="s">
+        <v>182</v>
       </c>
       <c r="J183" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K183">
         <v>1</v>
@@ -15601,7 +15634,7 @@
         <v>114</v>
       </c>
       <c r="J184" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K184">
         <v>2</v>
@@ -15627,7 +15660,7 @@
         <v>114</v>
       </c>
       <c r="J185" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K185">
         <v>1</v>
@@ -15656,7 +15689,7 @@
         <v>114</v>
       </c>
       <c r="J186" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K186">
         <v>3</v>
@@ -15685,7 +15718,7 @@
         <v>114</v>
       </c>
       <c r="J187" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K187">
         <v>2</v>
@@ -15711,7 +15744,7 @@
         <v>114</v>
       </c>
       <c r="J188" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K188">
         <v>1</v>
@@ -15740,7 +15773,7 @@
         <v>114</v>
       </c>
       <c r="J189" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K189">
         <v>3</v>
@@ -15769,7 +15802,7 @@
         <v>119</v>
       </c>
       <c r="J190" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K190">
         <v>2</v>
@@ -15795,7 +15828,7 @@
         <v>119</v>
       </c>
       <c r="J191" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K191">
         <v>1</v>
@@ -15824,7 +15857,7 @@
         <v>119</v>
       </c>
       <c r="J192" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K192">
         <v>3</v>
@@ -15853,7 +15886,7 @@
         <v>118</v>
       </c>
       <c r="J193" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="K193">
         <v>2</v>
@@ -15879,7 +15912,7 @@
         <v>118</v>
       </c>
       <c r="J194" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="K194">
         <v>1</v>
@@ -15908,7 +15941,7 @@
         <v>118</v>
       </c>
       <c r="J195" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="K195">
         <v>3</v>
@@ -15937,7 +15970,7 @@
         <v>117</v>
       </c>
       <c r="J196" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K196">
         <v>2</v>
@@ -15963,7 +15996,7 @@
         <v>117</v>
       </c>
       <c r="J197" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K197">
         <v>1</v>
@@ -15992,7 +16025,7 @@
         <v>117</v>
       </c>
       <c r="J198" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K198">
         <v>3</v>
@@ -16021,7 +16054,7 @@
         <v>112</v>
       </c>
       <c r="J199" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="K199">
         <v>2</v>
@@ -16047,7 +16080,7 @@
         <v>112</v>
       </c>
       <c r="J200" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="K200">
         <v>1</v>
@@ -16073,10 +16106,10 @@
         <v>7002</v>
       </c>
       <c r="I201" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J201" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K201">
         <v>2</v>
@@ -16102,10 +16135,10 @@
         <v>7002</v>
       </c>
       <c r="I202" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J202" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K202">
         <v>2</v>
@@ -16134,7 +16167,7 @@
         <v>113</v>
       </c>
       <c r="J203" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K203">
         <v>2</v>
@@ -16160,7 +16193,7 @@
         <v>113</v>
       </c>
       <c r="J204" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K204">
         <v>1</v>
@@ -16189,7 +16222,7 @@
         <v>113</v>
       </c>
       <c r="J205" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K205">
         <v>3</v>
@@ -16218,7 +16251,7 @@
         <v>115</v>
       </c>
       <c r="J206" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K206">
         <v>2</v>
@@ -16244,7 +16277,7 @@
         <v>115</v>
       </c>
       <c r="J207" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K207">
         <v>1</v>
@@ -16273,7 +16306,7 @@
         <v>115</v>
       </c>
       <c r="J208" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K208">
         <v>3</v>
@@ -16302,7 +16335,7 @@
         <v>118</v>
       </c>
       <c r="J209" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K209">
         <v>2</v>
@@ -16328,7 +16361,7 @@
         <v>118</v>
       </c>
       <c r="J210" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K210">
         <v>1</v>
@@ -16357,7 +16390,7 @@
         <v>118</v>
       </c>
       <c r="J211" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K211">
         <v>3</v>
@@ -16386,7 +16419,7 @@
         <v>116</v>
       </c>
       <c r="J212" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K212">
         <v>2</v>
@@ -16412,7 +16445,7 @@
         <v>116</v>
       </c>
       <c r="J213" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K213">
         <v>1</v>
@@ -16441,7 +16474,7 @@
         <v>116</v>
       </c>
       <c r="J214" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K214">
         <v>3</v>
@@ -16470,7 +16503,7 @@
         <v>112</v>
       </c>
       <c r="J215" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K215">
         <v>2</v>
@@ -16496,7 +16529,7 @@
         <v>112</v>
       </c>
       <c r="J216" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K216">
         <v>1</v>
@@ -16525,7 +16558,7 @@
         <v>112</v>
       </c>
       <c r="J217" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K217">
         <v>3</v>
@@ -16554,7 +16587,7 @@
         <v>112</v>
       </c>
       <c r="J218" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K218">
         <v>2</v>
@@ -16580,7 +16613,7 @@
         <v>112</v>
       </c>
       <c r="J219" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K219">
         <v>1</v>
@@ -16609,7 +16642,7 @@
         <v>112</v>
       </c>
       <c r="J220" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K220">
         <v>3</v>
@@ -16638,7 +16671,7 @@
         <v>112</v>
       </c>
       <c r="J221" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K221">
         <v>2</v>
@@ -16667,7 +16700,7 @@
         <v>112</v>
       </c>
       <c r="J222" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K222">
         <v>2</v>
@@ -16696,7 +16729,7 @@
         <v>112</v>
       </c>
       <c r="J223" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K223">
         <v>2</v>
@@ -16722,7 +16755,7 @@
         <v>112</v>
       </c>
       <c r="J224" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K224">
         <v>1</v>
@@ -16748,10 +16781,10 @@
         <v>7002</v>
       </c>
       <c r="I225" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J225" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K225">
         <v>2</v>
@@ -16777,10 +16810,10 @@
         <v>7002</v>
       </c>
       <c r="I226" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J226" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K226">
         <v>2</v>
@@ -16803,10 +16836,10 @@
         <v>7002</v>
       </c>
       <c r="I227" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J227" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K227">
         <v>1</v>
@@ -16829,10 +16862,10 @@
         <v>7002</v>
       </c>
       <c r="I228" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J228" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K228">
         <v>1</v>
@@ -16855,10 +16888,10 @@
         <v>7002</v>
       </c>
       <c r="I229" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J229" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K229">
         <v>1</v>
@@ -16881,10 +16914,10 @@
         <v>7002</v>
       </c>
       <c r="I230" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J230" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K230">
         <v>1</v>
@@ -16907,7 +16940,7 @@
         <v>84</v>
       </c>
       <c r="J231" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K231">
         <v>2</v>
@@ -16933,7 +16966,7 @@
         <v>84</v>
       </c>
       <c r="J232" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K232">
         <v>2</v>
@@ -16959,7 +16992,7 @@
         <v>84</v>
       </c>
       <c r="J233" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K233">
         <v>2</v>
@@ -16988,10 +17021,10 @@
         <v>1003</v>
       </c>
       <c r="I234" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J234" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="K234">
         <v>2</v>
@@ -17017,10 +17050,10 @@
         <v>1002</v>
       </c>
       <c r="I235" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J235" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K235">
         <v>2</v>
@@ -17043,7 +17076,7 @@
         <v>84</v>
       </c>
       <c r="J236" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K236">
         <v>2</v>
@@ -17072,10 +17105,10 @@
         <v>1003</v>
       </c>
       <c r="I237" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J237" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K237">
         <v>2</v>
@@ -17101,10 +17134,10 @@
         <v>1002</v>
       </c>
       <c r="I238" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J238" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K238">
         <v>2</v>
@@ -17124,7 +17157,7 @@
         <v>74</v>
       </c>
       <c r="J239" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K239">
         <v>1</v>
@@ -17150,10 +17183,10 @@
         <v>1003</v>
       </c>
       <c r="I240" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J240" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K240">
         <v>1</v>
@@ -17176,10 +17209,10 @@
         <v>1003</v>
       </c>
       <c r="I241" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J241" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K241">
         <v>1</v>
@@ -17202,10 +17235,10 @@
         <v>1002</v>
       </c>
       <c r="I242" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J242" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K242">
         <v>1</v>
@@ -17228,10 +17261,10 @@
         <v>1002</v>
       </c>
       <c r="I243" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J243" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K243">
         <v>1</v>
@@ -17251,7 +17284,7 @@
         <v>74</v>
       </c>
       <c r="J244" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K244">
         <v>1</v>
@@ -17274,7 +17307,7 @@
         <v>74</v>
       </c>
       <c r="J245" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K245">
         <v>1</v>
@@ -17300,10 +17333,10 @@
         <v>1003</v>
       </c>
       <c r="I246" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J246" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K246">
         <v>1</v>
@@ -17326,10 +17359,10 @@
         <v>1003</v>
       </c>
       <c r="I247" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J247" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K247">
         <v>1</v>
@@ -17352,10 +17385,10 @@
         <v>1002</v>
       </c>
       <c r="I248" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J248" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K248">
         <v>1</v>
@@ -17378,10 +17411,10 @@
         <v>1002</v>
       </c>
       <c r="I249" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J249" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="K249">
         <v>1</v>
@@ -17401,7 +17434,7 @@
         <v>74</v>
       </c>
       <c r="J250" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K250">
         <v>1</v>
@@ -17427,10 +17460,10 @@
         <v>1003</v>
       </c>
       <c r="I251" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J251" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K251">
         <v>1</v>
@@ -17453,10 +17486,10 @@
         <v>1002</v>
       </c>
       <c r="I252" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J252" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K252">
         <v>1</v>
@@ -17476,7 +17509,7 @@
         <v>74</v>
       </c>
       <c r="J253" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K253">
         <v>1</v>
@@ -17499,7 +17532,7 @@
         <v>74</v>
       </c>
       <c r="J254" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K254">
         <v>1</v>
@@ -17531,7 +17564,7 @@
         <v>144</v>
       </c>
       <c r="J255" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="K255">
         <v>2</v>
@@ -17560,7 +17593,7 @@
         <v>144</v>
       </c>
       <c r="J256" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="K256">
         <v>2</v>
@@ -17589,7 +17622,7 @@
         <v>144</v>
       </c>
       <c r="J257" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="K257">
         <v>2</v>
@@ -17615,7 +17648,7 @@
         <v>144</v>
       </c>
       <c r="J258" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="K258">
         <v>1</v>
@@ -17644,7 +17677,7 @@
         <v>144</v>
       </c>
       <c r="J259" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="K259">
         <v>3</v>
@@ -17667,7 +17700,7 @@
         <v>55</v>
       </c>
       <c r="J260" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="K260">
         <v>3</v>
@@ -17696,10 +17729,10 @@
         <v>1003</v>
       </c>
       <c r="I261" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J261" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="K261">
         <v>3</v>
@@ -17725,10 +17758,10 @@
         <v>1002</v>
       </c>
       <c r="I262" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J262" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K262">
         <v>3</v>
@@ -17754,10 +17787,10 @@
         <v>7001</v>
       </c>
       <c r="I263" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J263" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K263">
         <v>2</v>
@@ -17782,11 +17815,11 @@
       <c r="H264">
         <v>1001</v>
       </c>
-      <c r="I264" t="s">
-        <v>188</v>
+      <c r="I264" s="7" t="s">
+        <v>182</v>
       </c>
       <c r="J264" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K264">
         <v>2</v>
@@ -17812,10 +17845,10 @@
         <v>7001</v>
       </c>
       <c r="I265" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J265" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="K265">
         <v>2</v>
@@ -17838,7 +17871,7 @@
         <v>84</v>
       </c>
       <c r="J266" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K266">
         <v>2</v>
@@ -17858,7 +17891,7 @@
         <v>74</v>
       </c>
       <c r="J267" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K267">
         <v>1</v>
@@ -17881,7 +17914,7 @@
         <v>84</v>
       </c>
       <c r="J268" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="K268">
         <v>2</v>
@@ -17901,7 +17934,7 @@
         <v>74</v>
       </c>
       <c r="J269" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="K269">
         <v>1</v>
@@ -17926,11 +17959,11 @@
       <c r="H270">
         <v>1001</v>
       </c>
-      <c r="I270" t="s">
-        <v>188</v>
+      <c r="I270" s="7" t="s">
+        <v>182</v>
       </c>
       <c r="J270" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K270">
         <v>2</v>
@@ -17952,11 +17985,11 @@
       <c r="H271">
         <v>1001</v>
       </c>
-      <c r="I271" t="s">
-        <v>188</v>
+      <c r="I271" s="7" t="s">
+        <v>182</v>
       </c>
       <c r="J271" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K271">
         <v>1</v>
@@ -17979,7 +18012,7 @@
         <v>84</v>
       </c>
       <c r="J272" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K272">
         <v>2</v>
@@ -18005,7 +18038,7 @@
         <v>84</v>
       </c>
       <c r="J273" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K273">
         <v>2</v>
@@ -18028,7 +18061,7 @@
         <v>74</v>
       </c>
       <c r="J274" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K274">
         <v>1</v>
@@ -18054,10 +18087,10 @@
         <v>2023</v>
       </c>
       <c r="I275" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J275" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K275">
         <v>1</v>
@@ -18083,7 +18116,7 @@
         <v>103</v>
       </c>
       <c r="J276" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K276">
         <v>1</v>
@@ -18109,7 +18142,7 @@
         <v>98</v>
       </c>
       <c r="J277" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K277">
         <v>1</v>
@@ -18135,7 +18168,7 @@
         <v>97</v>
       </c>
       <c r="J278" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K278">
         <v>1</v>
@@ -18158,10 +18191,10 @@
         <v>7005</v>
       </c>
       <c r="I279" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J279" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K279">
         <v>1</v>
@@ -18181,7 +18214,7 @@
         <v>74</v>
       </c>
       <c r="J280" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K280">
         <v>1</v>
@@ -18204,10 +18237,10 @@
         <v>7001</v>
       </c>
       <c r="I281" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J281" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K281">
         <v>1</v>
@@ -18230,10 +18263,10 @@
         <v>7001</v>
       </c>
       <c r="I282" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J282" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="K282">
         <v>1</v>
@@ -18259,10 +18292,10 @@
         <v>6017</v>
       </c>
       <c r="I283" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J283" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K283">
         <v>2</v>
@@ -18285,10 +18318,10 @@
         <v>6017</v>
       </c>
       <c r="I284" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J284" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K284">
         <v>1</v>
@@ -18313,11 +18346,11 @@
       <c r="H285">
         <v>1001</v>
       </c>
-      <c r="I285" t="s">
-        <v>188</v>
+      <c r="I285" s="7" t="s">
+        <v>182</v>
       </c>
       <c r="J285" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K285">
         <v>3</v>
@@ -18340,7 +18373,7 @@
         <v>55</v>
       </c>
       <c r="J286" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K286">
         <v>3</v>
@@ -18369,10 +18402,10 @@
         <v>1003</v>
       </c>
       <c r="I287" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J287" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K287">
         <v>2</v>
@@ -18395,10 +18428,10 @@
         <v>1003</v>
       </c>
       <c r="I288" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J288" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K288">
         <v>1</v>
@@ -18424,10 +18457,10 @@
         <v>1002</v>
       </c>
       <c r="I289" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J289" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="K289">
         <v>2</v>
@@ -18450,10 +18483,10 @@
         <v>1002</v>
       </c>
       <c r="I290" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J290" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="K290">
         <v>1</v>
@@ -18476,7 +18509,7 @@
         <v>84</v>
       </c>
       <c r="J291" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="K291">
         <v>2</v>
@@ -18496,7 +18529,7 @@
         <v>74</v>
       </c>
       <c r="J292" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="K292">
         <v>1</v>
@@ -18519,7 +18552,7 @@
         <v>84</v>
       </c>
       <c r="J293" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="K293">
         <v>2</v>
@@ -18539,7 +18572,7 @@
         <v>74</v>
       </c>
       <c r="J294" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="K294">
         <v>1</v>
@@ -18568,7 +18601,7 @@
         <v>128</v>
       </c>
       <c r="J295" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="K295">
         <v>2</v>
@@ -18594,7 +18627,7 @@
         <v>128</v>
       </c>
       <c r="J296" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="K296">
         <v>1</v>
@@ -18617,10 +18650,10 @@
         <v>7002</v>
       </c>
       <c r="I297" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J297" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K297">
         <v>1</v>
@@ -18643,10 +18676,10 @@
         <v>7004</v>
       </c>
       <c r="I298" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J298" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="K298">
         <v>1</v>
@@ -18666,7 +18699,7 @@
         <v>74</v>
       </c>
       <c r="J299" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K299">
         <v>1</v>
@@ -18692,7 +18725,7 @@
         <v>96</v>
       </c>
       <c r="J300" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K300">
         <v>1</v>
@@ -18715,10 +18748,10 @@
         <v>7001</v>
       </c>
       <c r="I301" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J301" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="K301">
         <v>1</v>
@@ -18744,7 +18777,7 @@
         <v>90</v>
       </c>
       <c r="J302" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="K302">
         <v>1</v>
@@ -18764,7 +18797,7 @@
         <v>74</v>
       </c>
       <c r="J303" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K303">
         <v>1</v>
@@ -18790,10 +18823,10 @@
         <v>1003</v>
       </c>
       <c r="I304" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J304" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K304">
         <v>3</v>
@@ -18819,10 +18852,10 @@
         <v>1002</v>
       </c>
       <c r="I305" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J305" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="K305">
         <v>3</v>
@@ -18848,10 +18881,10 @@
         <v>7001</v>
       </c>
       <c r="I306" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J306" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="K306">
         <v>2</v>
@@ -18877,10 +18910,10 @@
         <v>7001</v>
       </c>
       <c r="I307" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J307" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="K307">
         <v>2</v>
@@ -18906,10 +18939,10 @@
         <v>7001</v>
       </c>
       <c r="I308" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J308" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="K308">
         <v>2</v>
@@ -18935,10 +18968,10 @@
         <v>7001</v>
       </c>
       <c r="I309" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J309" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="K309">
         <v>2</v>
@@ -18963,11 +18996,11 @@
       <c r="H310">
         <v>1001</v>
       </c>
-      <c r="I310" t="s">
-        <v>188</v>
+      <c r="I310" s="7" t="s">
+        <v>182</v>
       </c>
       <c r="J310" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="K310">
         <v>2</v>
@@ -18992,11 +19025,11 @@
       <c r="H311">
         <v>1001</v>
       </c>
-      <c r="I311" t="s">
-        <v>188</v>
+      <c r="I311" s="7" t="s">
+        <v>182</v>
       </c>
       <c r="J311" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="K311">
         <v>2</v>
@@ -19019,7 +19052,7 @@
         <v>84</v>
       </c>
       <c r="J312" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K312">
         <v>2</v>
@@ -19045,10 +19078,10 @@
         <v>7001</v>
       </c>
       <c r="I313" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J313" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K313">
         <v>2</v>
@@ -19074,10 +19107,10 @@
         <v>7001</v>
       </c>
       <c r="I314" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J314" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="K314">
         <v>2</v>
@@ -19103,10 +19136,10 @@
         <v>7005</v>
       </c>
       <c r="I315" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J315" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K315">
         <v>2</v>
@@ -19132,10 +19165,10 @@
         <v>7002</v>
       </c>
       <c r="I316" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J316" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K316">
         <v>2</v>
@@ -19161,10 +19194,10 @@
         <v>7004</v>
       </c>
       <c r="I317" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J317" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="K317">
         <v>2</v>
@@ -19187,7 +19220,7 @@
         <v>84</v>
       </c>
       <c r="J318" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K318">
         <v>2</v>
@@ -19213,10 +19246,10 @@
         <v>7003</v>
       </c>
       <c r="I319" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J319" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="K319">
         <v>2</v>
@@ -19242,10 +19275,10 @@
         <v>7003</v>
       </c>
       <c r="I320" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J320" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="K320">
         <v>2</v>
@@ -19271,10 +19304,10 @@
         <v>7003</v>
       </c>
       <c r="I321" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J321" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="K321">
         <v>2</v>
@@ -19297,7 +19330,7 @@
         <v>84</v>
       </c>
       <c r="J322" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K322">
         <v>2</v>
@@ -19323,7 +19356,7 @@
         <v>84</v>
       </c>
       <c r="J323" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="K323">
         <v>2</v>
@@ -19352,10 +19385,10 @@
         <v>1003</v>
       </c>
       <c r="I324" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J324" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="K324">
         <v>2</v>
@@ -19381,10 +19414,10 @@
         <v>1002</v>
       </c>
       <c r="I325" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J325" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K325">
         <v>2</v>
@@ -19407,7 +19440,7 @@
         <v>84</v>
       </c>
       <c r="J326" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="K326">
         <v>2</v>
@@ -19433,7 +19466,7 @@
         <v>84</v>
       </c>
       <c r="J327" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="K327">
         <v>2</v>
@@ -19462,10 +19495,10 @@
         <v>1002</v>
       </c>
       <c r="I328" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J328" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="K328">
         <v>2</v>
@@ -19491,10 +19524,10 @@
         <v>1003</v>
       </c>
       <c r="I329" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J329" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="K329">
         <v>2</v>
@@ -19517,7 +19550,7 @@
         <v>84</v>
       </c>
       <c r="J330" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K330">
         <v>2</v>
@@ -19543,7 +19576,7 @@
         <v>84</v>
       </c>
       <c r="J331" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K331">
         <v>2</v>
@@ -19572,10 +19605,10 @@
         <v>7002</v>
       </c>
       <c r="I332" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J332" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="K332">
         <v>2</v>
@@ -19601,10 +19634,10 @@
         <v>7002</v>
       </c>
       <c r="I333" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J333" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="K333">
         <v>2</v>
@@ -19630,10 +19663,10 @@
         <v>7002</v>
       </c>
       <c r="I334" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J334" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="K334">
         <v>2</v>
@@ -19656,7 +19689,7 @@
         <v>84</v>
       </c>
       <c r="J335" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="K335">
         <v>2</v>
@@ -19682,7 +19715,7 @@
         <v>84</v>
       </c>
       <c r="J336" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="K336">
         <v>2</v>
@@ -19708,7 +19741,7 @@
         <v>84</v>
       </c>
       <c r="J337" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="K337">
         <v>2</v>
@@ -19740,7 +19773,7 @@
         <v>128</v>
       </c>
       <c r="J338" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="K338">
         <v>2</v>
@@ -19766,7 +19799,7 @@
         <v>128</v>
       </c>
       <c r="J339" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="K339">
         <v>1</v>
@@ -19795,7 +19828,7 @@
         <v>128</v>
       </c>
       <c r="J340" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="K340">
         <v>3</v>
@@ -19824,7 +19857,7 @@
         <v>129</v>
       </c>
       <c r="J341" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="K341">
         <v>2</v>
@@ -19850,7 +19883,7 @@
         <v>129</v>
       </c>
       <c r="J342" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="K342">
         <v>1</v>
@@ -19879,7 +19912,7 @@
         <v>129</v>
       </c>
       <c r="J343" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="K343">
         <v>3</v>
@@ -19908,7 +19941,7 @@
         <v>138</v>
       </c>
       <c r="J344" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="K344">
         <v>2</v>
@@ -19934,7 +19967,7 @@
         <v>138</v>
       </c>
       <c r="J345" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="K345">
         <v>1</v>
@@ -19963,7 +19996,7 @@
         <v>138</v>
       </c>
       <c r="J346" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="K346">
         <v>3</v>
@@ -19989,10 +20022,10 @@
         <v>6015</v>
       </c>
       <c r="I347" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J347" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="K347">
         <v>2</v>
@@ -20015,10 +20048,10 @@
         <v>6015</v>
       </c>
       <c r="I348" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J348" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="K348">
         <v>1</v>
@@ -20044,10 +20077,10 @@
         <v>6015</v>
       </c>
       <c r="I349" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J349" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="K349">
         <v>3</v>
@@ -20076,7 +20109,7 @@
         <v>137</v>
       </c>
       <c r="J350" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K350">
         <v>2</v>
@@ -20102,7 +20135,7 @@
         <v>137</v>
       </c>
       <c r="J351" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K351">
         <v>1</v>
@@ -20131,7 +20164,7 @@
         <v>137</v>
       </c>
       <c r="J352" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K352">
         <v>3</v>
@@ -20160,7 +20193,7 @@
         <v>128</v>
       </c>
       <c r="J353" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K353">
         <v>2</v>
@@ -20186,7 +20219,7 @@
         <v>128</v>
       </c>
       <c r="J354" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K354">
         <v>1</v>
@@ -20215,7 +20248,7 @@
         <v>128</v>
       </c>
       <c r="J355" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K355">
         <v>3</v>
@@ -20244,7 +20277,7 @@
         <v>132</v>
       </c>
       <c r="J356" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K356">
         <v>2</v>
@@ -20270,7 +20303,7 @@
         <v>132</v>
       </c>
       <c r="J357" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K357">
         <v>1</v>
@@ -20299,7 +20332,7 @@
         <v>132</v>
       </c>
       <c r="J358" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K358">
         <v>3</v>
@@ -20328,7 +20361,7 @@
         <v>129</v>
       </c>
       <c r="J359" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K359">
         <v>2</v>
@@ -20354,7 +20387,7 @@
         <v>129</v>
       </c>
       <c r="J360" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K360">
         <v>1</v>
@@ -20383,7 +20416,7 @@
         <v>129</v>
       </c>
       <c r="J361" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K361">
         <v>3</v>
@@ -20412,7 +20445,7 @@
         <v>127</v>
       </c>
       <c r="J362" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K362">
         <v>2</v>
@@ -20438,7 +20471,7 @@
         <v>127</v>
       </c>
       <c r="J363" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K363">
         <v>1</v>
@@ -20467,7 +20500,7 @@
         <v>127</v>
       </c>
       <c r="J364" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K364">
         <v>3</v>
@@ -20496,7 +20529,7 @@
         <v>140</v>
       </c>
       <c r="J365" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K365">
         <v>2</v>
@@ -20522,7 +20555,7 @@
         <v>140</v>
       </c>
       <c r="J366" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K366">
         <v>1</v>
@@ -20551,7 +20584,7 @@
         <v>140</v>
       </c>
       <c r="J367" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K367">
         <v>3</v>
@@ -20580,7 +20613,7 @@
         <v>139</v>
       </c>
       <c r="J368" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="K368">
         <v>2</v>
@@ -20606,7 +20639,7 @@
         <v>139</v>
       </c>
       <c r="J369" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="K369">
         <v>1</v>
@@ -20635,7 +20668,7 @@
         <v>139</v>
       </c>
       <c r="J370" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="K370">
         <v>3</v>
@@ -20664,7 +20697,7 @@
         <v>134</v>
       </c>
       <c r="J371" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K371">
         <v>2</v>
@@ -20690,7 +20723,7 @@
         <v>134</v>
       </c>
       <c r="J372" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K372">
         <v>1</v>
@@ -20719,7 +20752,7 @@
         <v>134</v>
       </c>
       <c r="J373" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K373">
         <v>3</v>
@@ -20748,7 +20781,7 @@
         <v>142</v>
       </c>
       <c r="J374" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K374">
         <v>2</v>
@@ -20774,7 +20807,7 @@
         <v>142</v>
       </c>
       <c r="J375" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K375">
         <v>1</v>
@@ -20803,7 +20836,7 @@
         <v>142</v>
       </c>
       <c r="J376" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K376">
         <v>3</v>
@@ -20832,7 +20865,7 @@
         <v>131</v>
       </c>
       <c r="J377" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="K377">
         <v>2</v>
@@ -20858,7 +20891,7 @@
         <v>131</v>
       </c>
       <c r="J378" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="K378">
         <v>1</v>
@@ -20887,7 +20920,7 @@
         <v>131</v>
       </c>
       <c r="J379" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="K379">
         <v>3</v>
@@ -20913,10 +20946,10 @@
         <v>6017</v>
       </c>
       <c r="I380" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J380" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="K380">
         <v>2</v>
@@ -20939,10 +20972,10 @@
         <v>6017</v>
       </c>
       <c r="I381" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J381" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="K381">
         <v>1</v>
@@ -20968,10 +21001,10 @@
         <v>6017</v>
       </c>
       <c r="I382" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J382" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="K382">
         <v>3</v>
@@ -21000,7 +21033,7 @@
         <v>136</v>
       </c>
       <c r="J383" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="K383">
         <v>2</v>
@@ -21026,7 +21059,7 @@
         <v>136</v>
       </c>
       <c r="J384" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="K384">
         <v>1</v>
@@ -21055,7 +21088,7 @@
         <v>136</v>
       </c>
       <c r="J385" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="K385">
         <v>3</v>
@@ -21084,7 +21117,7 @@
         <v>133</v>
       </c>
       <c r="J386" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="K386">
         <v>2</v>
@@ -21110,7 +21143,7 @@
         <v>133</v>
       </c>
       <c r="J387" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="K387">
         <v>1</v>
@@ -21139,7 +21172,7 @@
         <v>133</v>
       </c>
       <c r="J388" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="K388">
         <v>3</v>
@@ -21168,7 +21201,7 @@
         <v>130</v>
       </c>
       <c r="J389" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="K389">
         <v>2</v>
@@ -21194,7 +21227,7 @@
         <v>130</v>
       </c>
       <c r="J390" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="K390">
         <v>1</v>
@@ -21223,7 +21256,7 @@
         <v>130</v>
       </c>
       <c r="J391" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="K391">
         <v>3</v>
@@ -21252,7 +21285,7 @@
         <v>135</v>
       </c>
       <c r="J392" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="K392">
         <v>2</v>
@@ -21278,7 +21311,7 @@
         <v>135</v>
       </c>
       <c r="J393" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="K393">
         <v>1</v>
@@ -21307,7 +21340,7 @@
         <v>135</v>
       </c>
       <c r="J394" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="K394">
         <v>3</v>
@@ -21327,7 +21360,7 @@
         <v>74</v>
       </c>
       <c r="J395" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="K395">
         <v>1</v>
@@ -21347,7 +21380,7 @@
         <v>74</v>
       </c>
       <c r="J396" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="K396">
         <v>1</v>
@@ -21370,7 +21403,7 @@
         <v>84</v>
       </c>
       <c r="J397" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="K397">
         <v>2</v>
@@ -21393,7 +21426,7 @@
         <v>55</v>
       </c>
       <c r="J398" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="K398">
         <v>3</v>
@@ -21422,7 +21455,7 @@
         <v>146</v>
       </c>
       <c r="J399" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="K399">
         <v>3</v>
@@ -21451,7 +21484,7 @@
         <v>145</v>
       </c>
       <c r="J400" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="K400">
         <v>3</v>
@@ -21480,7 +21513,7 @@
         <v>146</v>
       </c>
       <c r="J401" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="K401">
         <v>2</v>
@@ -21506,7 +21539,7 @@
         <v>146</v>
       </c>
       <c r="J402" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="K402">
         <v>1</v>
@@ -21535,7 +21568,7 @@
         <v>145</v>
       </c>
       <c r="J403" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="K403">
         <v>2</v>
@@ -21561,7 +21594,7 @@
         <v>145</v>
       </c>
       <c r="J404" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="K404">
         <v>1</v>
@@ -21584,7 +21617,7 @@
         <v>55</v>
       </c>
       <c r="J405" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="K405">
         <v>3</v>
@@ -21604,7 +21637,7 @@
         <v>74</v>
       </c>
       <c r="J406" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="K406">
         <v>1</v>
@@ -21627,7 +21660,7 @@
         <v>84</v>
       </c>
       <c r="J407" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="K407">
         <v>2</v>
@@ -21650,7 +21683,7 @@
         <v>84</v>
       </c>
       <c r="J408" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="K408">
         <v>2</v>
@@ -21679,7 +21712,7 @@
         <v>112</v>
       </c>
       <c r="J409" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="K409">
         <v>3</v>

--- a/市場_2025改修/ソース/master.xlsx
+++ b/市場_2025改修/ソース/master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_Work\Git\si001\市場_2025改修\ソース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA086E4-CDCA-428E-A827-E5CC18B8B2E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9AE9EC6-CA88-4C08-B458-786BA9915C64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="白紙" sheetId="23" r:id="rId1"/>
@@ -5020,6 +5020,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CE014A8-5E42-49EB-B180-B9B28D25162E}">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5064,10 +5065,11 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9689966D-31EE-4750-B92F-1DAD82031DE6}">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:J103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6533,7 +6535,7 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>

--- a/市場_2025改修/ソース/master.xlsx
+++ b/市場_2025改修/ソース/master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_Work\Git\si001\市場_2025改修\ソース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9AE9EC6-CA88-4C08-B458-786BA9915C64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C1CBC4-88C9-4D93-8DB6-09B2CC2D7B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="白紙" sheetId="23" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2740" uniqueCount="664">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2950" uniqueCount="737">
   <si>
     <t>テナント名称</t>
   </si>
@@ -2286,324 +2286,76 @@
     <t>但陽信用金庫</t>
   </si>
   <si>
-    <t>朝来支店</t>
-  </si>
-  <si>
-    <t>003</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>甘地支店</t>
-  </si>
-  <si>
-    <t>004</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>002</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF333333"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>播州信用金庫</t>
-    </r>
-    <phoneticPr fontId="1"/>
+    <t>本店営業部</t>
+  </si>
+  <si>
+    <t>028</t>
+  </si>
+  <si>
+    <t>020</t>
+  </si>
+  <si>
+    <t>031</t>
+  </si>
+  <si>
+    <t>033</t>
+  </si>
+  <si>
+    <t>026</t>
+  </si>
+  <si>
+    <t>016</t>
+  </si>
+  <si>
+    <t>035</t>
+  </si>
+  <si>
+    <t>034</t>
+  </si>
+  <si>
+    <t>019</t>
+  </si>
+  <si>
+    <t>027</t>
+  </si>
+  <si>
+    <t>011</t>
+  </si>
+  <si>
+    <t>030</t>
+  </si>
+  <si>
+    <t>032</t>
+  </si>
+  <si>
+    <t>025</t>
+  </si>
+  <si>
+    <t>015</t>
+  </si>
+  <si>
+    <t>029</t>
   </si>
   <si>
     <t>012</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>粟賀支店</t>
-  </si>
-  <si>
-    <t>生野支店</t>
-  </si>
-  <si>
-    <t>稲美支店</t>
-  </si>
-  <si>
-    <t>大塩支店</t>
-  </si>
-  <si>
-    <t>尾上支店</t>
-  </si>
-  <si>
-    <t>加古川東支店</t>
-  </si>
-  <si>
-    <t>加西支店</t>
-  </si>
-  <si>
-    <t>勝原支店</t>
-  </si>
-  <si>
-    <t>神野支店</t>
-  </si>
-  <si>
-    <t>北野支店</t>
-  </si>
-  <si>
-    <t>香呂支店</t>
-  </si>
-  <si>
-    <t>飾磨支店</t>
-  </si>
-  <si>
-    <t>城西支店</t>
-  </si>
-  <si>
-    <t>城北支店</t>
-  </si>
-  <si>
-    <t>高砂支店</t>
-  </si>
-  <si>
-    <t>高砂中央支店</t>
-  </si>
-  <si>
-    <t>高砂西支店</t>
-  </si>
-  <si>
-    <t>土山支店</t>
-  </si>
-  <si>
-    <t>寺前支店</t>
-  </si>
-  <si>
-    <t>姫路支店</t>
-  </si>
-  <si>
-    <t>姫路北支店</t>
-  </si>
-  <si>
-    <t>姫路灘支店</t>
-  </si>
-  <si>
-    <t xml:space="preserve">姫路西支店 </t>
-  </si>
-  <si>
-    <t>姫路東支店</t>
-  </si>
-  <si>
-    <t>姫路南支店</t>
-  </si>
-  <si>
-    <t>平野支店</t>
-  </si>
-  <si>
-    <t>福崎支店</t>
-  </si>
-  <si>
-    <t>別府支店</t>
-  </si>
-  <si>
-    <t>本荘支店</t>
-  </si>
-  <si>
-    <t>本店営業部</t>
-  </si>
-  <si>
-    <t>溝口支店</t>
-  </si>
-  <si>
-    <t>和田山支店</t>
-  </si>
-  <si>
-    <t>001</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>028</t>
-  </si>
-  <si>
-    <t>028</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>020</t>
-  </si>
-  <si>
-    <t>020</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>031</t>
-  </si>
-  <si>
-    <t>031</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>018</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>022</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>033</t>
-  </si>
-  <si>
-    <t>033</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>026</t>
-  </si>
-  <si>
-    <t>026</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>016</t>
-  </si>
-  <si>
-    <t>016</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>006</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>035</t>
-  </si>
-  <si>
-    <t>035</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>034</t>
-  </si>
-  <si>
-    <t>034</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>009</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>010</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>019</t>
-  </si>
-  <si>
-    <t>019</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>027</t>
-  </si>
-  <si>
-    <t>027</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>011</t>
-  </si>
-  <si>
-    <t>011</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>030</t>
-  </si>
-  <si>
-    <t>030</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>008</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>032</t>
-  </si>
-  <si>
-    <t>032</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>025</t>
-  </si>
-  <si>
-    <t>025</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>015</t>
-  </si>
-  <si>
-    <t>015</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>029</t>
-  </si>
-  <si>
-    <t>029</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>012</t>
   </si>
   <si>
     <t>023</t>
   </si>
   <si>
-    <t>023</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>007</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>014</t>
   </si>
   <si>
-    <t>014</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>021</t>
   </si>
   <si>
-    <t>021</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>013</t>
   </si>
   <si>
-    <t>013</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>024</t>
   </si>
   <si>
-    <t>024</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>036</t>
-  </si>
-  <si>
-    <t>036</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>加古川</t>
@@ -3031,26 +2783,471 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>003</t>
+  </si>
+  <si>
+    <t>生野</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>ﾀﾝﾖｳｼﾝｷﾝ</t>
+  </si>
+  <si>
+    <t>粟賀</t>
+  </si>
+  <si>
+    <t>002</t>
+  </si>
+  <si>
+    <t>朝来</t>
+  </si>
+  <si>
+    <t>甘地</t>
+  </si>
+  <si>
+    <t>004</t>
+  </si>
+  <si>
+    <t>香呂</t>
+  </si>
+  <si>
+    <t>006</t>
+  </si>
+  <si>
+    <t>007</t>
+  </si>
+  <si>
+    <t>姫路</t>
+  </si>
+  <si>
+    <t>008</t>
+  </si>
+  <si>
+    <t>城北</t>
+  </si>
+  <si>
+    <t>009</t>
+  </si>
+  <si>
+    <t>010</t>
+  </si>
+  <si>
+    <t>姫路南</t>
+  </si>
+  <si>
+    <t>姫路西</t>
+  </si>
+  <si>
+    <t>北野</t>
+  </si>
+  <si>
+    <t>加古川東</t>
+  </si>
+  <si>
+    <t>018</t>
+  </si>
+  <si>
+    <t>高砂中央</t>
+  </si>
+  <si>
+    <t>大塩</t>
+  </si>
+  <si>
+    <t>本荘</t>
+  </si>
+  <si>
+    <t>加西</t>
+  </si>
+  <si>
+    <t>022</t>
+  </si>
+  <si>
+    <t>溝口</t>
+  </si>
+  <si>
+    <t>姫路灘</t>
+  </si>
+  <si>
+    <t>神野</t>
+  </si>
+  <si>
+    <t>高砂西</t>
+  </si>
+  <si>
+    <t>姫路東</t>
+  </si>
+  <si>
+    <t>寺前</t>
+  </si>
+  <si>
+    <t>尾上</t>
+  </si>
+  <si>
+    <t>姫路北</t>
+  </si>
+  <si>
+    <t>勝原</t>
+  </si>
+  <si>
+    <t>城西</t>
+  </si>
+  <si>
+    <t>和田山</t>
+  </si>
+  <si>
+    <t>ｲｸﾉ</t>
+  </si>
+  <si>
+    <t>ｱﾜｶﾞ</t>
+  </si>
+  <si>
+    <t>ｱｻｺﾞ</t>
+  </si>
+  <si>
+    <t>ｱﾏｼﾞ</t>
+  </si>
+  <si>
+    <t>ｺｳﾛ</t>
+  </si>
+  <si>
+    <t>ﾌｸｻｷ</t>
+  </si>
+  <si>
+    <t>ﾋﾒｼﾞ</t>
+  </si>
+  <si>
+    <t>ｼﾞﾖｳﾎｸ</t>
+  </si>
+  <si>
+    <t>ﾀｶｻｺﾞ</t>
+  </si>
+  <si>
+    <t>ﾂﾁﾔﾏ</t>
+  </si>
+  <si>
+    <t>ﾋﾒｼﾞﾐﾅﾐ</t>
+  </si>
+  <si>
+    <t>ﾎﾝﾃﾝ</t>
+  </si>
+  <si>
+    <t>ﾍﾞﾌ</t>
+  </si>
+  <si>
+    <t>ﾋﾒｼﾞﾆｼ</t>
+  </si>
+  <si>
+    <t>ｷﾀﾉ</t>
+  </si>
+  <si>
+    <t>ｶｺｶﾞﾜﾋｶﾞｼ</t>
+  </si>
+  <si>
+    <t>ﾀｶｻｺﾞﾁﾕｳｵｳ</t>
+  </si>
+  <si>
+    <t>ｵｵｼｵ</t>
+  </si>
+  <si>
+    <t>ﾎﾝｼﾞﾖｳ</t>
+  </si>
+  <si>
+    <t>ｶｻｲ</t>
+  </si>
+  <si>
+    <t>ﾋﾗﾉ</t>
+  </si>
+  <si>
+    <t>ﾐｿﾞｸﾞﾁ</t>
+  </si>
+  <si>
+    <t>ﾋﾒｼﾞﾅﾀﾞ</t>
+  </si>
+  <si>
+    <t>ｶﾝﾉ</t>
+  </si>
+  <si>
+    <t>ﾀｶｻｺﾞﾆｼ</t>
+  </si>
+  <si>
+    <t>ｲﾅﾐ</t>
+  </si>
+  <si>
+    <t>ﾋﾒｼﾞﾋｶﾞｼ</t>
+  </si>
+  <si>
+    <t>ﾃﾗﾏｴ</t>
+  </si>
+  <si>
+    <t>ｵﾉｴ</t>
+  </si>
+  <si>
+    <t>ﾋﾒｼﾞｷﾀ</t>
+  </si>
+  <si>
+    <t>ｶﾂﾊﾗ</t>
+  </si>
+  <si>
+    <t>ｼﾞﾖｳｻｲ</t>
+  </si>
+  <si>
+    <t>ｼｶﾏ</t>
+  </si>
+  <si>
+    <t>ﾜﾀﾞﾔﾏ</t>
+  </si>
+  <si>
+    <t>銀行名（半角カナ）</t>
+  </si>
+  <si>
+    <t>支店名（半角カナ）</t>
+  </si>
+  <si>
+    <t>播州信用金庫</t>
+  </si>
+  <si>
+    <t>ﾊﾞﾝｼﾕｳｼﾝｷﾝ</t>
+  </si>
+  <si>
+    <t>ｶｺｶﾞﾜ</t>
+  </si>
+  <si>
+    <t>ｾﾝﾊﾞ</t>
+  </si>
+  <si>
+    <t>ﾉｻﾞﾄ</t>
+  </si>
+  <si>
+    <t>ｲﾁﾊﾞ</t>
+  </si>
+  <si>
+    <t>ｱｲｵｲ</t>
+  </si>
+  <si>
+    <t>ﾋｶﾞｼ</t>
+  </si>
+  <si>
+    <t>ｱﾎﾞｼ</t>
+  </si>
+  <si>
+    <t>ﾎｳｼﾞﾖｳ</t>
+  </si>
+  <si>
+    <t>ｱｶｼ</t>
+  </si>
+  <si>
+    <t>ﾋﾖｳｺﾞ</t>
+  </si>
+  <si>
+    <t>ｷﾀ</t>
+  </si>
+  <si>
+    <t>ﾋｶﾞｼﾅﾀﾞ</t>
+  </si>
+  <si>
+    <t>ﾋｶﾞｼｶｺｶﾞﾜ</t>
+  </si>
+  <si>
+    <t>ｲﾎﾞｶﾞﾜ</t>
+  </si>
+  <si>
+    <t>ｺｳﾍﾞﾆｼ</t>
+  </si>
+  <si>
+    <t>ｱｶﾞﾎ</t>
+  </si>
+  <si>
+    <t>ｲﾏｼﾞﾕｸ</t>
+  </si>
+  <si>
+    <t>ｲﾎ</t>
+  </si>
+  <si>
+    <t>ｴｷﾏｴ</t>
+  </si>
+  <si>
+    <t>ﾋﾛﾊﾀ</t>
+  </si>
+  <si>
+    <t>ﾓﾄﾔﾏ</t>
+  </si>
+  <si>
+    <t>ｱｺｳ</t>
+  </si>
+  <si>
+    <t>ﾀｲｼ</t>
+  </si>
+  <si>
+    <t>ﾎｳｼﾛ</t>
+  </si>
+  <si>
+    <t>ｼﾗﾊﾏ</t>
+  </si>
+  <si>
+    <t>ﾌﾀﾐ</t>
+  </si>
+  <si>
+    <t>ﾀﾂﾉ</t>
+  </si>
+  <si>
+    <t>ｱｵﾔﾏ</t>
+  </si>
+  <si>
+    <t>ﾆｼｱｶｼ</t>
+  </si>
+  <si>
+    <t>ｱﾗｲ</t>
+  </si>
+  <si>
+    <t>ﾐｷ</t>
+  </si>
+  <si>
+    <t>ｵｵｸﾎﾞ</t>
+  </si>
+  <si>
+    <t>ﾐﾀﾁ</t>
+  </si>
+  <si>
+    <t>ﾎｳﾃﾞﾝ</t>
+  </si>
+  <si>
+    <t>ｼｶﾏﾆｼ</t>
+  </si>
+  <si>
+    <t>ﾉｸﾞﾁ</t>
+  </si>
+  <si>
+    <t>ｻﾝﾉﾐﾔ</t>
+  </si>
+  <si>
+    <t>ﾀﾙﾐ</t>
+  </si>
+  <si>
+    <t>ﾊﾅﾀﾞ</t>
+  </si>
+  <si>
+    <t>ﾅﾀﾞ</t>
+  </si>
+  <si>
+    <t>ﾛﾂｺｳﾐﾁ</t>
+  </si>
+  <si>
+    <t>ｻﾝﾉﾐﾔｷﾀ</t>
+  </si>
+  <si>
+    <t>ﾆｼﾉﾐﾔ</t>
+  </si>
+  <si>
+    <t>ｱﾏｶﾞｻｷ</t>
+  </si>
+  <si>
+    <t>ｲﾏﾂﾞ</t>
+  </si>
+  <si>
+    <t>ﾀｶﾗﾂﾞｶ</t>
+  </si>
+  <si>
+    <t>ｺｳﾃﾞﾗ</t>
+  </si>
+  <si>
+    <t>ｲﾀﾐ</t>
+  </si>
+  <si>
+    <t>ｾｲｼﾝﾐﾅﾐ</t>
+  </si>
+  <si>
+    <t>ﾆｼ</t>
+  </si>
+  <si>
+    <t>ｶﾐｺﾞｵﾘ</t>
+  </si>
+  <si>
+    <t>ｵﾉ</t>
+  </si>
+  <si>
+    <t>ﾂｶｸﾞﾁ</t>
+  </si>
+  <si>
+    <t>ﾕﾒﾐﾗｲ</t>
+  </si>
+  <si>
+    <t>ﾀﾆｶﾞﾐ</t>
+  </si>
+  <si>
+    <t>ﾀﾁﾊﾞﾅ</t>
+  </si>
+  <si>
+    <t>ﾆｼﾜｷ</t>
+  </si>
+  <si>
+    <t>ﾆｼﾉﾐﾔｷﾀ</t>
+  </si>
+  <si>
+    <t>ﾖﾄﾞｶﾞﾜ</t>
+  </si>
+  <si>
+    <t>ﾄﾖﾅｶ</t>
+  </si>
+  <si>
+    <t>銀行名カナ</t>
+    <rPh sb="0" eb="2">
+      <t>ギンコウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>支店名カナ</t>
+    <rPh sb="0" eb="2">
+      <t>シテン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>但陽信用金庫</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>1696</t>
-  </si>
-  <si>
-    <t>003</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生野</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>001</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>1:普通預金</t>
-  </si>
-  <si>
-    <t>11111</t>
-  </si>
-  <si>
-    <t>ﾀﾞｲﾄﾞｳｾｲｶ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1234567</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カナ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ﾀﾝﾖｳｼﾝｷﾝ</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3122,26 +3319,6 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
-    <font>
-      <sz val="13"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color rgb="FF333333"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color rgb="FF333333"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3200,7 +3377,7 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3239,12 +3416,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -5039,22 +5210,22 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>651</v>
+        <v>583</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>652</v>
+        <v>584</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>653</v>
+        <v>585</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>654</v>
+        <v>586</v>
       </c>
     </row>
   </sheetData>
@@ -5068,8 +5239,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:J103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5077,7 +5248,7 @@
     <col min="1" max="1" width="15.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -5093,1435 +5264,2053 @@
       <c r="D1" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="16.5">
-      <c r="A2" s="13" t="s">
+      <c r="E1" t="s">
+        <v>663</v>
+      </c>
+      <c r="F1" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
         <v>446</v>
       </c>
       <c r="B2">
         <v>1696</v>
       </c>
-      <c r="C2" s="14" t="s">
-        <v>447</v>
+      <c r="C2" t="s">
+        <v>592</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="16.5">
-      <c r="A3" s="13" t="s">
+        <v>593</v>
+      </c>
+      <c r="E2" t="s">
+        <v>594</v>
+      </c>
+      <c r="F2" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
         <v>446</v>
       </c>
       <c r="B3">
         <v>1696</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>449</v>
+      <c r="C3" t="s">
+        <v>595</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="16.5">
-      <c r="A4" s="13" t="s">
+        <v>596</v>
+      </c>
+      <c r="E3" t="s">
+        <v>594</v>
+      </c>
+      <c r="F3" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
         <v>446</v>
       </c>
       <c r="B4">
         <v>1696</v>
       </c>
       <c r="C4" t="s">
-        <v>454</v>
+        <v>597</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="16.5">
-      <c r="A5" s="13" t="s">
+        <v>591</v>
+      </c>
+      <c r="E4" t="s">
+        <v>594</v>
+      </c>
+      <c r="F4" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
         <v>446</v>
       </c>
       <c r="B5">
         <v>1696</v>
       </c>
       <c r="C5" t="s">
-        <v>455</v>
+        <v>598</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>486</v>
+        <v>599</v>
+      </c>
+      <c r="E5" t="s">
+        <v>594</v>
+      </c>
+      <c r="F5" t="s">
+        <v>632</v>
       </c>
       <c r="J5" s="8"/>
     </row>
-    <row r="6" spans="1:10" ht="16.5">
-      <c r="A6" s="13" t="s">
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
         <v>446</v>
       </c>
       <c r="B6">
         <v>1696</v>
       </c>
       <c r="C6" t="s">
-        <v>456</v>
+        <v>600</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>488</v>
+        <v>601</v>
+      </c>
+      <c r="E6" t="s">
+        <v>594</v>
+      </c>
+      <c r="F6" t="s">
+        <v>633</v>
       </c>
       <c r="J6" s="8"/>
     </row>
-    <row r="7" spans="1:10" ht="16.5">
-      <c r="A7" s="13" t="s">
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
         <v>446</v>
       </c>
       <c r="B7">
         <v>1696</v>
       </c>
       <c r="C7" t="s">
-        <v>457</v>
+        <v>480</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="16.5">
-      <c r="A8" s="13" t="s">
+        <v>602</v>
+      </c>
+      <c r="E7" t="s">
+        <v>594</v>
+      </c>
+      <c r="F7" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
         <v>446</v>
       </c>
       <c r="B8">
         <v>1696</v>
       </c>
       <c r="C8" t="s">
-        <v>458</v>
+        <v>603</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="16.5">
-      <c r="A9" s="13" t="s">
+        <v>604</v>
+      </c>
+      <c r="E8" t="s">
+        <v>594</v>
+      </c>
+      <c r="F8" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
         <v>446</v>
       </c>
       <c r="B9">
         <v>1696</v>
       </c>
       <c r="C9" t="s">
-        <v>459</v>
+        <v>605</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="16.5">
-      <c r="A10" s="13" t="s">
+        <v>606</v>
+      </c>
+      <c r="E9" t="s">
+        <v>594</v>
+      </c>
+      <c r="F9" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
         <v>446</v>
       </c>
       <c r="B10">
         <v>1696</v>
       </c>
       <c r="C10" t="s">
-        <v>460</v>
+        <v>474</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="16.5">
-      <c r="A11" s="13" t="s">
+        <v>607</v>
+      </c>
+      <c r="E10" t="s">
+        <v>594</v>
+      </c>
+      <c r="F10" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
         <v>446</v>
       </c>
       <c r="B11">
         <v>1696</v>
       </c>
       <c r="C11" t="s">
-        <v>461</v>
+        <v>501</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="16.5">
-      <c r="A12" s="13" t="s">
+        <v>458</v>
+      </c>
+      <c r="E11" t="s">
+        <v>594</v>
+      </c>
+      <c r="F11" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
         <v>446</v>
       </c>
       <c r="B12">
         <v>1696</v>
       </c>
       <c r="C12" t="s">
-        <v>462</v>
+        <v>608</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="16.5">
-      <c r="A13" s="13" t="s">
+        <v>464</v>
+      </c>
+      <c r="E12" t="s">
+        <v>594</v>
+      </c>
+      <c r="F12" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
         <v>446</v>
       </c>
       <c r="B13">
         <v>1696</v>
       </c>
       <c r="C13" t="s">
-        <v>463</v>
+        <v>447</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="16.5">
-      <c r="A14" s="13" t="s">
+        <v>468</v>
+      </c>
+      <c r="E13" t="s">
+        <v>594</v>
+      </c>
+      <c r="F13" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
         <v>446</v>
       </c>
       <c r="B14">
         <v>1696</v>
       </c>
       <c r="C14" t="s">
-        <v>464</v>
+        <v>506</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="16.5">
-      <c r="A15" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="E14" t="s">
+        <v>594</v>
+      </c>
+      <c r="F14" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
         <v>446</v>
       </c>
       <c r="B15">
         <v>1696</v>
       </c>
       <c r="C15" t="s">
-        <v>465</v>
+        <v>609</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="16.5">
-      <c r="A16" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="E15" t="s">
+        <v>594</v>
+      </c>
+      <c r="F15" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
         <v>446</v>
       </c>
       <c r="B16">
         <v>1696</v>
       </c>
       <c r="C16" t="s">
-        <v>466</v>
+        <v>610</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="16.5">
-      <c r="A17" s="13" t="s">
+        <v>453</v>
+      </c>
+      <c r="E16" t="s">
+        <v>594</v>
+      </c>
+      <c r="F16" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
         <v>446</v>
       </c>
       <c r="B17">
         <v>1696</v>
       </c>
       <c r="C17" t="s">
-        <v>467</v>
+        <v>611</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="16.5">
-      <c r="A18" s="13" t="s">
+        <v>612</v>
+      </c>
+      <c r="E17" t="s">
+        <v>594</v>
+      </c>
+      <c r="F17" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
         <v>446</v>
       </c>
       <c r="B18">
         <v>1696</v>
       </c>
       <c r="C18" t="s">
-        <v>468</v>
+        <v>613</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="16.5">
-      <c r="A19" s="13" t="s">
+        <v>456</v>
+      </c>
+      <c r="E18" t="s">
+        <v>594</v>
+      </c>
+      <c r="F18" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
         <v>446</v>
       </c>
       <c r="B19">
         <v>1696</v>
       </c>
       <c r="C19" t="s">
-        <v>469</v>
+        <v>614</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="16.5">
-      <c r="A20" s="13" t="s">
+        <v>449</v>
+      </c>
+      <c r="E19" t="s">
+        <v>594</v>
+      </c>
+      <c r="F19" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
         <v>446</v>
       </c>
       <c r="B20">
         <v>1696</v>
       </c>
       <c r="C20" t="s">
-        <v>470</v>
+        <v>615</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="16.5">
-      <c r="A21" s="13" t="s">
+        <v>467</v>
+      </c>
+      <c r="E20" t="s">
+        <v>594</v>
+      </c>
+      <c r="F20" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
         <v>446</v>
       </c>
       <c r="B21">
         <v>1696</v>
       </c>
       <c r="C21" t="s">
-        <v>471</v>
+        <v>616</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="16.5">
-      <c r="A22" s="13" t="s">
+        <v>617</v>
+      </c>
+      <c r="E21" t="s">
+        <v>594</v>
+      </c>
+      <c r="F21" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
         <v>446</v>
       </c>
       <c r="B22">
         <v>1696</v>
       </c>
       <c r="C22" t="s">
-        <v>472</v>
+        <v>493</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="16.5">
-      <c r="A23" s="13" t="s">
+        <v>465</v>
+      </c>
+      <c r="E22" t="s">
+        <v>594</v>
+      </c>
+      <c r="F22" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
         <v>446</v>
       </c>
       <c r="B23">
         <v>1696</v>
       </c>
       <c r="C23" t="s">
-        <v>473</v>
+        <v>618</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="16.5">
-      <c r="A24" s="13" t="s">
+        <v>469</v>
+      </c>
+      <c r="E23" t="s">
+        <v>594</v>
+      </c>
+      <c r="F23" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
         <v>446</v>
       </c>
       <c r="B24">
         <v>1696</v>
       </c>
       <c r="C24" t="s">
-        <v>474</v>
+        <v>619</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="16.5">
-      <c r="A25" s="13" t="s">
+        <v>461</v>
+      </c>
+      <c r="E24" t="s">
+        <v>594</v>
+      </c>
+      <c r="F24" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
         <v>446</v>
       </c>
       <c r="B25">
         <v>1696</v>
       </c>
       <c r="C25" t="s">
-        <v>475</v>
+        <v>620</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="16.5">
-      <c r="A26" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="E25" t="s">
+        <v>594</v>
+      </c>
+      <c r="F25" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
         <v>446</v>
       </c>
       <c r="B26">
         <v>1696</v>
       </c>
       <c r="C26" t="s">
-        <v>476</v>
+        <v>621</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="16.5">
-      <c r="A27" s="13" t="s">
+        <v>457</v>
+      </c>
+      <c r="E26" t="s">
+        <v>594</v>
+      </c>
+      <c r="F26" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
         <v>446</v>
       </c>
       <c r="B27">
         <v>1696</v>
       </c>
       <c r="C27" t="s">
-        <v>477</v>
+        <v>513</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="16.5">
-      <c r="A28" s="13" t="s">
+        <v>448</v>
+      </c>
+      <c r="E27" t="s">
+        <v>594</v>
+      </c>
+      <c r="F27" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
         <v>446</v>
       </c>
       <c r="B28">
         <v>1696</v>
       </c>
       <c r="C28" t="s">
-        <v>478</v>
+        <v>622</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="16.5">
-      <c r="A29" s="13" t="s">
+        <v>463</v>
+      </c>
+      <c r="E28" t="s">
+        <v>594</v>
+      </c>
+      <c r="F28" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
         <v>446</v>
       </c>
       <c r="B29">
         <v>1696</v>
       </c>
       <c r="C29" t="s">
-        <v>479</v>
+        <v>623</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="16.5">
-      <c r="A30" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="E29" t="s">
+        <v>594</v>
+      </c>
+      <c r="F29" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
         <v>446</v>
       </c>
       <c r="B30">
         <v>1696</v>
       </c>
       <c r="C30" t="s">
-        <v>480</v>
+        <v>624</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="16.5">
-      <c r="A31" s="13" t="s">
+        <v>450</v>
+      </c>
+      <c r="E30" t="s">
+        <v>594</v>
+      </c>
+      <c r="F30" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
         <v>446</v>
       </c>
       <c r="B31">
         <v>1696</v>
       </c>
       <c r="C31" t="s">
-        <v>481</v>
+        <v>625</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="16.5">
-      <c r="A32" s="13" t="s">
+        <v>460</v>
+      </c>
+      <c r="E31" t="s">
+        <v>594</v>
+      </c>
+      <c r="F31" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
         <v>446</v>
       </c>
       <c r="B32">
         <v>1696</v>
       </c>
       <c r="C32" t="s">
-        <v>482</v>
+        <v>626</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="16.5">
-      <c r="A33" s="13" t="s">
+        <v>451</v>
+      </c>
+      <c r="E32" t="s">
+        <v>594</v>
+      </c>
+      <c r="F32" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
         <v>446</v>
       </c>
       <c r="B33">
         <v>1696</v>
       </c>
       <c r="C33" t="s">
-        <v>483</v>
+        <v>627</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="16.5">
-      <c r="A34" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="E33" t="s">
+        <v>594</v>
+      </c>
+      <c r="F33" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
         <v>446</v>
       </c>
       <c r="B34">
         <v>1696</v>
       </c>
       <c r="C34" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="16.5">
-      <c r="A35" s="13" t="s">
+        <v>454</v>
+      </c>
+      <c r="E34" t="s">
+        <v>594</v>
+      </c>
+      <c r="F34" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
         <v>446</v>
       </c>
       <c r="B35">
         <v>1696</v>
       </c>
       <c r="C35" t="s">
-        <v>485</v>
+        <v>628</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="16.5">
-      <c r="A36" s="13" t="s">
-        <v>452</v>
+        <v>470</v>
+      </c>
+      <c r="E35" t="s">
+        <v>594</v>
+      </c>
+      <c r="F35" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>665</v>
       </c>
       <c r="B36">
         <v>1686</v>
       </c>
       <c r="C36" t="s">
-        <v>483</v>
+        <v>447</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="16.5">
-      <c r="A37" s="13" t="s">
-        <v>452</v>
+        <v>458</v>
+      </c>
+      <c r="E36" t="s">
+        <v>666</v>
+      </c>
+      <c r="F36" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>665</v>
       </c>
       <c r="B37">
         <v>1686</v>
       </c>
       <c r="C37" t="s">
-        <v>539</v>
+        <v>471</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="16.5">
-      <c r="A38" s="13" t="s">
-        <v>452</v>
+        <v>464</v>
+      </c>
+      <c r="E37" t="s">
+        <v>666</v>
+      </c>
+      <c r="F37" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>665</v>
       </c>
       <c r="B38">
         <v>1686</v>
       </c>
       <c r="C38" t="s">
-        <v>540</v>
+        <v>472</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="16.5">
-      <c r="A39" s="13" t="s">
-        <v>452</v>
+        <v>468</v>
+      </c>
+      <c r="E38" t="s">
+        <v>666</v>
+      </c>
+      <c r="F38" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>665</v>
       </c>
       <c r="B39">
         <v>1686</v>
       </c>
       <c r="C39" t="s">
-        <v>541</v>
+        <v>473</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="16.5">
-      <c r="A40" s="13" t="s">
-        <v>452</v>
+        <v>466</v>
+      </c>
+      <c r="E39" t="s">
+        <v>666</v>
+      </c>
+      <c r="F39" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>665</v>
       </c>
       <c r="B40">
         <v>1686</v>
       </c>
       <c r="C40" t="s">
-        <v>542</v>
+        <v>474</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="16.5">
-      <c r="A41" s="13" t="s">
-        <v>452</v>
+        <v>462</v>
+      </c>
+      <c r="E40" t="s">
+        <v>666</v>
+      </c>
+      <c r="F40" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>665</v>
       </c>
       <c r="B41">
         <v>1686</v>
       </c>
       <c r="C41" t="s">
-        <v>543</v>
+        <v>475</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="16.5">
-      <c r="A42" s="13" t="s">
-        <v>452</v>
+        <v>453</v>
+      </c>
+      <c r="E41" t="s">
+        <v>666</v>
+      </c>
+      <c r="F41" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>665</v>
       </c>
       <c r="B42">
         <v>1686</v>
       </c>
       <c r="C42" t="s">
-        <v>544</v>
+        <v>476</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="16.5">
-      <c r="A43" s="13" t="s">
-        <v>452</v>
+        <v>538</v>
+      </c>
+      <c r="E42" t="s">
+        <v>666</v>
+      </c>
+      <c r="F42" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>665</v>
       </c>
       <c r="B43">
         <v>1686</v>
       </c>
       <c r="C43" t="s">
-        <v>545</v>
+        <v>477</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="16.5">
-      <c r="A44" s="13" t="s">
-        <v>452</v>
+        <v>456</v>
+      </c>
+      <c r="E43" t="s">
+        <v>666</v>
+      </c>
+      <c r="F43" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>665</v>
       </c>
       <c r="B44">
         <v>1686</v>
       </c>
       <c r="C44" t="s">
-        <v>546</v>
+        <v>478</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="16.5">
-      <c r="A45" s="13" t="s">
-        <v>452</v>
+        <v>449</v>
+      </c>
+      <c r="E44" t="s">
+        <v>666</v>
+      </c>
+      <c r="F44" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>665</v>
       </c>
       <c r="B45">
         <v>1686</v>
       </c>
       <c r="C45" t="s">
-        <v>547</v>
+        <v>479</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="16.5">
-      <c r="A46" s="13" t="s">
-        <v>452</v>
+        <v>467</v>
+      </c>
+      <c r="E45" t="s">
+        <v>666</v>
+      </c>
+      <c r="F45" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>665</v>
       </c>
       <c r="B46">
         <v>1686</v>
       </c>
       <c r="C46" t="s">
-        <v>548</v>
+        <v>480</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="16.5">
-      <c r="A47" s="13" t="s">
-        <v>452</v>
+        <v>465</v>
+      </c>
+      <c r="E46" t="s">
+        <v>666</v>
+      </c>
+      <c r="F46" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>665</v>
       </c>
       <c r="B47">
         <v>1686</v>
       </c>
       <c r="C47" t="s">
-        <v>549</v>
+        <v>481</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="16.5">
-      <c r="A48" s="13" t="s">
-        <v>452</v>
+        <v>469</v>
+      </c>
+      <c r="E47" t="s">
+        <v>666</v>
+      </c>
+      <c r="F47" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>665</v>
       </c>
       <c r="B48">
         <v>1686</v>
       </c>
       <c r="C48" t="s">
-        <v>550</v>
+        <v>482</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="16.5">
-      <c r="A49" s="13" t="s">
-        <v>452</v>
+        <v>461</v>
+      </c>
+      <c r="E48" t="s">
+        <v>666</v>
+      </c>
+      <c r="F48" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>665</v>
       </c>
       <c r="B49">
         <v>1686</v>
       </c>
       <c r="C49" t="s">
-        <v>551</v>
+        <v>483</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="16.5">
-      <c r="A50" s="13" t="s">
         <v>452</v>
+      </c>
+      <c r="E49" t="s">
+        <v>666</v>
+      </c>
+      <c r="F49" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>665</v>
       </c>
       <c r="B50">
         <v>1686</v>
       </c>
       <c r="C50" t="s">
-        <v>552</v>
+        <v>484</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="16.5">
-      <c r="A51" s="13" t="s">
-        <v>452</v>
+        <v>457</v>
+      </c>
+      <c r="E50" t="s">
+        <v>666</v>
+      </c>
+      <c r="F50" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>665</v>
       </c>
       <c r="B51">
         <v>1686</v>
       </c>
       <c r="C51" t="s">
-        <v>553</v>
+        <v>485</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="16.5">
-      <c r="A52" s="13" t="s">
-        <v>452</v>
+        <v>448</v>
+      </c>
+      <c r="E51" t="s">
+        <v>666</v>
+      </c>
+      <c r="F51" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
+        <v>665</v>
       </c>
       <c r="B52">
         <v>1686</v>
       </c>
       <c r="C52" t="s">
-        <v>554</v>
+        <v>486</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="16.5">
-      <c r="A53" s="13" t="s">
-        <v>452</v>
+        <v>463</v>
+      </c>
+      <c r="E52" t="s">
+        <v>666</v>
+      </c>
+      <c r="F52" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" t="s">
+        <v>665</v>
       </c>
       <c r="B53">
         <v>1686</v>
       </c>
       <c r="C53" t="s">
-        <v>555</v>
+        <v>487</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="16.5">
-      <c r="A54" s="13" t="s">
-        <v>452</v>
+        <v>459</v>
+      </c>
+      <c r="E53" t="s">
+        <v>666</v>
+      </c>
+      <c r="F53" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" t="s">
+        <v>665</v>
       </c>
       <c r="B54">
         <v>1686</v>
       </c>
       <c r="C54" t="s">
-        <v>556</v>
+        <v>488</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="16.5">
-      <c r="A55" s="13" t="s">
-        <v>452</v>
+        <v>450</v>
+      </c>
+      <c r="E54" t="s">
+        <v>666</v>
+      </c>
+      <c r="F54" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" t="s">
+        <v>665</v>
       </c>
       <c r="B55">
         <v>1686</v>
       </c>
       <c r="C55" t="s">
-        <v>557</v>
+        <v>489</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="16.5">
-      <c r="A56" s="13" t="s">
-        <v>452</v>
+        <v>460</v>
+      </c>
+      <c r="E55" t="s">
+        <v>666</v>
+      </c>
+      <c r="F55" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
+        <v>665</v>
       </c>
       <c r="B56">
         <v>1686</v>
       </c>
       <c r="C56" t="s">
-        <v>558</v>
+        <v>490</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="16.5">
-      <c r="A57" s="13" t="s">
-        <v>452</v>
+        <v>451</v>
+      </c>
+      <c r="E56" t="s">
+        <v>666</v>
+      </c>
+      <c r="F56" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
+        <v>665</v>
       </c>
       <c r="B57">
         <v>1686</v>
       </c>
       <c r="C57" t="s">
-        <v>559</v>
+        <v>491</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="16.5">
-      <c r="A58" s="13" t="s">
-        <v>452</v>
+        <v>455</v>
+      </c>
+      <c r="E57" t="s">
+        <v>666</v>
+      </c>
+      <c r="F57" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" t="s">
+        <v>665</v>
       </c>
       <c r="B58">
         <v>1686</v>
       </c>
       <c r="C58" t="s">
-        <v>560</v>
+        <v>492</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="16.5">
-      <c r="A59" s="13" t="s">
-        <v>452</v>
+        <v>454</v>
+      </c>
+      <c r="E58" t="s">
+        <v>666</v>
+      </c>
+      <c r="F58" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" t="s">
+        <v>665</v>
       </c>
       <c r="B59">
         <v>1686</v>
       </c>
       <c r="C59" t="s">
-        <v>561</v>
+        <v>493</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="16.5">
-      <c r="A60" s="13" t="s">
-        <v>452</v>
+        <v>470</v>
+      </c>
+      <c r="E59" t="s">
+        <v>666</v>
+      </c>
+      <c r="F59" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" t="s">
+        <v>665</v>
       </c>
       <c r="B60">
         <v>1686</v>
       </c>
       <c r="C60" t="s">
-        <v>562</v>
+        <v>494</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="16.5">
-      <c r="A61" s="13" t="s">
-        <v>452</v>
+        <v>539</v>
+      </c>
+      <c r="E60" t="s">
+        <v>666</v>
+      </c>
+      <c r="F60" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" t="s">
+        <v>665</v>
       </c>
       <c r="B61">
         <v>1686</v>
       </c>
       <c r="C61" t="s">
-        <v>563</v>
+        <v>495</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="16.5">
-      <c r="A62" s="13" t="s">
-        <v>452</v>
+        <v>540</v>
+      </c>
+      <c r="E61" t="s">
+        <v>666</v>
+      </c>
+      <c r="F61" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" t="s">
+        <v>665</v>
       </c>
       <c r="B62">
         <v>1686</v>
       </c>
       <c r="C62" t="s">
-        <v>564</v>
+        <v>496</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="16.5">
-      <c r="A63" s="13" t="s">
-        <v>452</v>
+        <v>541</v>
+      </c>
+      <c r="E62" t="s">
+        <v>666</v>
+      </c>
+      <c r="F62" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" t="s">
+        <v>665</v>
       </c>
       <c r="B63">
         <v>1686</v>
       </c>
       <c r="C63" t="s">
-        <v>565</v>
+        <v>497</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="16.5">
-      <c r="A64" s="13" t="s">
-        <v>452</v>
+        <v>542</v>
+      </c>
+      <c r="E63" t="s">
+        <v>666</v>
+      </c>
+      <c r="F63" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" t="s">
+        <v>665</v>
       </c>
       <c r="B64">
         <v>1686</v>
       </c>
       <c r="C64" t="s">
-        <v>566</v>
+        <v>498</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="16.5">
-      <c r="A65" s="13" t="s">
-        <v>452</v>
+        <v>543</v>
+      </c>
+      <c r="E64" t="s">
+        <v>666</v>
+      </c>
+      <c r="F64" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" t="s">
+        <v>665</v>
       </c>
       <c r="B65">
         <v>1686</v>
       </c>
       <c r="C65" t="s">
-        <v>567</v>
+        <v>499</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="16.5">
-      <c r="A66" s="13" t="s">
-        <v>452</v>
+        <v>544</v>
+      </c>
+      <c r="E65" t="s">
+        <v>666</v>
+      </c>
+      <c r="F65" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" t="s">
+        <v>665</v>
       </c>
       <c r="B66">
         <v>1686</v>
       </c>
       <c r="C66" t="s">
-        <v>568</v>
+        <v>500</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="16.5">
-      <c r="A67" s="13" t="s">
-        <v>452</v>
+        <v>545</v>
+      </c>
+      <c r="E66" t="s">
+        <v>666</v>
+      </c>
+      <c r="F66" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" t="s">
+        <v>665</v>
       </c>
       <c r="B67">
         <v>1686</v>
       </c>
       <c r="C67" t="s">
-        <v>569</v>
+        <v>501</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="16.5">
-      <c r="A68" s="13" t="s">
-        <v>452</v>
+        <v>546</v>
+      </c>
+      <c r="E67" t="s">
+        <v>666</v>
+      </c>
+      <c r="F67" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" t="s">
+        <v>665</v>
       </c>
       <c r="B68">
         <v>1686</v>
       </c>
       <c r="C68" t="s">
-        <v>570</v>
+        <v>502</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="16.5">
-      <c r="A69" s="13" t="s">
-        <v>452</v>
+        <v>547</v>
+      </c>
+      <c r="E68" t="s">
+        <v>666</v>
+      </c>
+      <c r="F68" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" t="s">
+        <v>665</v>
       </c>
       <c r="B69">
         <v>1686</v>
       </c>
       <c r="C69" t="s">
-        <v>571</v>
+        <v>503</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="16.5">
-      <c r="A70" s="13" t="s">
-        <v>452</v>
+        <v>548</v>
+      </c>
+      <c r="E69" t="s">
+        <v>666</v>
+      </c>
+      <c r="F69" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" t="s">
+        <v>665</v>
       </c>
       <c r="B70">
         <v>1686</v>
       </c>
       <c r="C70" t="s">
-        <v>572</v>
+        <v>504</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="16.5">
-      <c r="A71" s="13" t="s">
-        <v>452</v>
+        <v>549</v>
+      </c>
+      <c r="E70" t="s">
+        <v>666</v>
+      </c>
+      <c r="F70" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" t="s">
+        <v>665</v>
       </c>
       <c r="B71">
         <v>1686</v>
       </c>
       <c r="C71" t="s">
-        <v>573</v>
+        <v>505</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="16.5">
-      <c r="A72" s="13" t="s">
-        <v>452</v>
+        <v>550</v>
+      </c>
+      <c r="E71" t="s">
+        <v>666</v>
+      </c>
+      <c r="F71" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" t="s">
+        <v>665</v>
       </c>
       <c r="B72">
         <v>1686</v>
       </c>
       <c r="C72" t="s">
-        <v>574</v>
+        <v>506</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="16.5">
-      <c r="A73" s="13" t="s">
-        <v>452</v>
+        <v>551</v>
+      </c>
+      <c r="E72" t="s">
+        <v>666</v>
+      </c>
+      <c r="F72" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" t="s">
+        <v>665</v>
       </c>
       <c r="B73">
         <v>1686</v>
       </c>
       <c r="C73" t="s">
-        <v>575</v>
+        <v>507</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="16.5">
-      <c r="A74" s="13" t="s">
-        <v>452</v>
+        <v>552</v>
+      </c>
+      <c r="E73" t="s">
+        <v>666</v>
+      </c>
+      <c r="F73" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" t="s">
+        <v>665</v>
       </c>
       <c r="B74">
         <v>1686</v>
       </c>
       <c r="C74" t="s">
-        <v>576</v>
+        <v>508</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="16.5">
-      <c r="A75" s="13" t="s">
-        <v>452</v>
+        <v>553</v>
+      </c>
+      <c r="E74" t="s">
+        <v>666</v>
+      </c>
+      <c r="F74" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" t="s">
+        <v>665</v>
       </c>
       <c r="B75">
         <v>1686</v>
       </c>
       <c r="C75" t="s">
-        <v>577</v>
+        <v>509</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="16.5">
-      <c r="A76" s="13" t="s">
-        <v>452</v>
+        <v>554</v>
+      </c>
+      <c r="E75" t="s">
+        <v>666</v>
+      </c>
+      <c r="F75" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" t="s">
+        <v>665</v>
       </c>
       <c r="B76">
         <v>1686</v>
       </c>
       <c r="C76" t="s">
-        <v>578</v>
+        <v>510</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="16.5">
-      <c r="A77" s="13" t="s">
-        <v>452</v>
+        <v>555</v>
+      </c>
+      <c r="E76" t="s">
+        <v>666</v>
+      </c>
+      <c r="F76" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" t="s">
+        <v>665</v>
       </c>
       <c r="B77">
         <v>1686</v>
       </c>
       <c r="C77" t="s">
-        <v>579</v>
+        <v>511</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="16.5">
-      <c r="A78" s="13" t="s">
-        <v>452</v>
+        <v>556</v>
+      </c>
+      <c r="E77" t="s">
+        <v>666</v>
+      </c>
+      <c r="F77" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" t="s">
+        <v>665</v>
       </c>
       <c r="B78">
         <v>1686</v>
       </c>
       <c r="C78" t="s">
-        <v>580</v>
+        <v>512</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="16.5">
-      <c r="A79" s="13" t="s">
-        <v>452</v>
+        <v>557</v>
+      </c>
+      <c r="E78" t="s">
+        <v>666</v>
+      </c>
+      <c r="F78" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" t="s">
+        <v>665</v>
       </c>
       <c r="B79">
         <v>1686</v>
       </c>
       <c r="C79" t="s">
-        <v>581</v>
+        <v>513</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="16.5">
-      <c r="A80" s="13" t="s">
-        <v>452</v>
+        <v>558</v>
+      </c>
+      <c r="E79" t="s">
+        <v>666</v>
+      </c>
+      <c r="F79" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" t="s">
+        <v>665</v>
       </c>
       <c r="B80">
         <v>1686</v>
       </c>
       <c r="C80" t="s">
-        <v>582</v>
+        <v>514</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="16.5">
-      <c r="A81" s="13" t="s">
-        <v>452</v>
+        <v>559</v>
+      </c>
+      <c r="E80" t="s">
+        <v>666</v>
+      </c>
+      <c r="F80" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" t="s">
+        <v>665</v>
       </c>
       <c r="B81">
         <v>1686</v>
       </c>
       <c r="C81" t="s">
-        <v>583</v>
+        <v>515</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="16.5">
-      <c r="A82" s="13" t="s">
-        <v>452</v>
+        <v>560</v>
+      </c>
+      <c r="E81" t="s">
+        <v>666</v>
+      </c>
+      <c r="F81" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" t="s">
+        <v>665</v>
       </c>
       <c r="B82">
         <v>1686</v>
       </c>
       <c r="C82" t="s">
-        <v>584</v>
+        <v>516</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="16.5">
-      <c r="A83" s="13" t="s">
-        <v>452</v>
+        <v>561</v>
+      </c>
+      <c r="E82" t="s">
+        <v>666</v>
+      </c>
+      <c r="F82" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" t="s">
+        <v>665</v>
       </c>
       <c r="B83">
         <v>1686</v>
       </c>
       <c r="C83" t="s">
-        <v>585</v>
+        <v>517</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="16.5">
-      <c r="A84" s="13" t="s">
-        <v>452</v>
+        <v>562</v>
+      </c>
+      <c r="E83" t="s">
+        <v>666</v>
+      </c>
+      <c r="F83" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" t="s">
+        <v>665</v>
       </c>
       <c r="B84">
         <v>1686</v>
       </c>
       <c r="C84" t="s">
-        <v>586</v>
+        <v>518</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="16.5">
-      <c r="A85" s="13" t="s">
-        <v>452</v>
+        <v>563</v>
+      </c>
+      <c r="E84" t="s">
+        <v>666</v>
+      </c>
+      <c r="F84" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" t="s">
+        <v>665</v>
       </c>
       <c r="B85">
         <v>1686</v>
       </c>
       <c r="C85" t="s">
-        <v>587</v>
+        <v>519</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="16.5">
-      <c r="A86" s="13" t="s">
-        <v>452</v>
+        <v>564</v>
+      </c>
+      <c r="E85" t="s">
+        <v>666</v>
+      </c>
+      <c r="F85" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" t="s">
+        <v>665</v>
       </c>
       <c r="B86">
         <v>1686</v>
       </c>
       <c r="C86" t="s">
-        <v>588</v>
+        <v>520</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="16.5">
-      <c r="A87" s="13" t="s">
-        <v>452</v>
+        <v>565</v>
+      </c>
+      <c r="E86" t="s">
+        <v>666</v>
+      </c>
+      <c r="F86" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" t="s">
+        <v>665</v>
       </c>
       <c r="B87">
         <v>1686</v>
       </c>
       <c r="C87" t="s">
-        <v>589</v>
+        <v>521</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="16.5">
-      <c r="A88" s="13" t="s">
-        <v>452</v>
+        <v>566</v>
+      </c>
+      <c r="E87" t="s">
+        <v>666</v>
+      </c>
+      <c r="F87" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" t="s">
+        <v>665</v>
       </c>
       <c r="B88">
         <v>1686</v>
       </c>
       <c r="C88" t="s">
-        <v>590</v>
+        <v>522</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="16.5">
-      <c r="A89" s="13" t="s">
-        <v>452</v>
+        <v>567</v>
+      </c>
+      <c r="E88" t="s">
+        <v>666</v>
+      </c>
+      <c r="F88" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" t="s">
+        <v>665</v>
       </c>
       <c r="B89">
         <v>1686</v>
       </c>
       <c r="C89" t="s">
-        <v>591</v>
+        <v>523</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="16.5">
-      <c r="A90" s="13" t="s">
-        <v>452</v>
+        <v>568</v>
+      </c>
+      <c r="E89" t="s">
+        <v>666</v>
+      </c>
+      <c r="F89" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" t="s">
+        <v>665</v>
       </c>
       <c r="B90">
         <v>1686</v>
       </c>
       <c r="C90" t="s">
-        <v>592</v>
+        <v>524</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" ht="16.5">
-      <c r="A91" s="13" t="s">
-        <v>452</v>
+        <v>569</v>
+      </c>
+      <c r="E90" t="s">
+        <v>666</v>
+      </c>
+      <c r="F90" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" t="s">
+        <v>665</v>
       </c>
       <c r="B91">
         <v>1686</v>
       </c>
       <c r="C91" t="s">
-        <v>593</v>
+        <v>525</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" ht="16.5">
-      <c r="A92" s="13" t="s">
-        <v>452</v>
+        <v>570</v>
+      </c>
+      <c r="E91" t="s">
+        <v>666</v>
+      </c>
+      <c r="F91" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" t="s">
+        <v>665</v>
       </c>
       <c r="B92">
         <v>1686</v>
       </c>
       <c r="C92" t="s">
-        <v>594</v>
+        <v>526</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" ht="16.5">
-      <c r="A93" s="13" t="s">
-        <v>452</v>
+        <v>571</v>
+      </c>
+      <c r="E92" t="s">
+        <v>666</v>
+      </c>
+      <c r="F92" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" t="s">
+        <v>665</v>
       </c>
       <c r="B93">
         <v>1686</v>
       </c>
       <c r="C93" t="s">
-        <v>595</v>
+        <v>527</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" ht="16.5">
-      <c r="A94" s="13" t="s">
-        <v>452</v>
+        <v>572</v>
+      </c>
+      <c r="E93" t="s">
+        <v>666</v>
+      </c>
+      <c r="F93" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" t="s">
+        <v>665</v>
       </c>
       <c r="B94">
         <v>1686</v>
       </c>
       <c r="C94" t="s">
-        <v>596</v>
+        <v>528</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" ht="16.5">
-      <c r="A95" s="13" t="s">
-        <v>452</v>
+        <v>573</v>
+      </c>
+      <c r="E94" t="s">
+        <v>666</v>
+      </c>
+      <c r="F94" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" t="s">
+        <v>665</v>
       </c>
       <c r="B95">
         <v>1686</v>
       </c>
       <c r="C95" t="s">
-        <v>597</v>
+        <v>529</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" ht="16.5">
-      <c r="A96" s="13" t="s">
-        <v>452</v>
+        <v>574</v>
+      </c>
+      <c r="E95" t="s">
+        <v>666</v>
+      </c>
+      <c r="F95" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" t="s">
+        <v>665</v>
       </c>
       <c r="B96">
         <v>1686</v>
       </c>
       <c r="C96" t="s">
-        <v>598</v>
+        <v>530</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" ht="16.5">
-      <c r="A97" s="13" t="s">
-        <v>452</v>
+        <v>575</v>
+      </c>
+      <c r="E96" t="s">
+        <v>666</v>
+      </c>
+      <c r="F96" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" t="s">
+        <v>665</v>
       </c>
       <c r="B97">
         <v>1686</v>
       </c>
       <c r="C97" t="s">
-        <v>599</v>
+        <v>531</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" ht="16.5">
-      <c r="A98" s="13" t="s">
-        <v>452</v>
+        <v>576</v>
+      </c>
+      <c r="E97" t="s">
+        <v>666</v>
+      </c>
+      <c r="F97" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" t="s">
+        <v>665</v>
       </c>
       <c r="B98">
         <v>1686</v>
       </c>
       <c r="C98" t="s">
-        <v>600</v>
+        <v>532</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" ht="16.5">
-      <c r="A99" s="13" t="s">
-        <v>452</v>
+        <v>577</v>
+      </c>
+      <c r="E98" t="s">
+        <v>666</v>
+      </c>
+      <c r="F98" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" t="s">
+        <v>665</v>
       </c>
       <c r="B99">
         <v>1686</v>
       </c>
       <c r="C99" t="s">
-        <v>601</v>
+        <v>533</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="16.5">
-      <c r="A100" s="13" t="s">
-        <v>452</v>
+        <v>578</v>
+      </c>
+      <c r="E99" t="s">
+        <v>666</v>
+      </c>
+      <c r="F99" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" t="s">
+        <v>665</v>
       </c>
       <c r="B100">
         <v>1686</v>
       </c>
       <c r="C100" t="s">
-        <v>602</v>
+        <v>534</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" ht="16.5">
-      <c r="A101" s="13" t="s">
-        <v>452</v>
+        <v>579</v>
+      </c>
+      <c r="E100" t="s">
+        <v>666</v>
+      </c>
+      <c r="F100" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" t="s">
+        <v>665</v>
       </c>
       <c r="B101">
         <v>1686</v>
       </c>
       <c r="C101" t="s">
-        <v>603</v>
+        <v>535</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" ht="16.5">
-      <c r="A102" s="13" t="s">
-        <v>452</v>
+        <v>580</v>
+      </c>
+      <c r="E101" t="s">
+        <v>666</v>
+      </c>
+      <c r="F101" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" t="s">
+        <v>665</v>
       </c>
       <c r="B102">
         <v>1686</v>
       </c>
       <c r="C102" t="s">
-        <v>604</v>
+        <v>536</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" ht="16.5">
-      <c r="A103" s="13" t="s">
-        <v>452</v>
+        <v>581</v>
+      </c>
+      <c r="E102" t="s">
+        <v>666</v>
+      </c>
+      <c r="F102" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" t="s">
+        <v>665</v>
       </c>
       <c r="B103">
         <v>1686</v>
       </c>
       <c r="C103" t="s">
-        <v>605</v>
+        <v>537</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>650</v>
+        <v>582</v>
+      </c>
+      <c r="E103" t="s">
+        <v>666</v>
+      </c>
+      <c r="F103" t="s">
+        <v>726</v>
       </c>
     </row>
   </sheetData>
@@ -6756,29 +7545,29 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>655</v>
+        <v>587</v>
       </c>
       <c r="B20">
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>657</v>
+        <v>589</v>
       </c>
       <c r="C21" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>658</v>
+        <v>590</v>
       </c>
       <c r="C22" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
   </sheetData>
@@ -6790,9 +7579,9 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:K166"/>
+  <dimension ref="A1:M166"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:D67"/>
     </sheetView>
   </sheetViews>
@@ -6800,15 +7589,18 @@
   <cols>
     <col min="1" max="1" width="12.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.25" customWidth="1"/>
+    <col min="3" max="3" width="15.5" customWidth="1"/>
     <col min="4" max="4" width="18.625" customWidth="1"/>
     <col min="5" max="5" width="14.5" customWidth="1"/>
     <col min="6" max="6" width="12.875" customWidth="1"/>
     <col min="7" max="7" width="13.25" customWidth="1"/>
     <col min="8" max="8" width="15.5" customWidth="1"/>
+    <col min="9" max="9" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="10.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -6842,8 +7634,14 @@
       <c r="K1" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" t="s">
+        <v>727</v>
+      </c>
+      <c r="M1" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -6857,28 +7655,34 @@
         <v>183</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>446</v>
+        <v>729</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>659</v>
+        <v>730</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>447</v>
+        <v>731</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>660</v>
+        <v>732</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>661</v>
+        <v>733</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>662</v>
+        <v>734</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>735</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>736</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -6892,7 +7696,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:13">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -6906,7 +7710,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>2001</v>
       </c>
@@ -6915,7 +7719,7 @@
       </c>
       <c r="D5" s="8"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>2002</v>
       </c>
@@ -6924,7 +7728,7 @@
       </c>
       <c r="D6" s="8"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>2003</v>
       </c>
@@ -6933,7 +7737,7 @@
       </c>
       <c r="D7" s="8"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:13">
       <c r="A8">
         <v>2004</v>
       </c>
@@ -6943,7 +7747,7 @@
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:13">
       <c r="A9">
         <v>2005</v>
       </c>
@@ -6953,7 +7757,7 @@
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:13">
       <c r="A10">
         <v>2006</v>
       </c>
@@ -6963,7 +7767,7 @@
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:13">
       <c r="A11">
         <v>2007</v>
       </c>
@@ -6971,7 +7775,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:13">
       <c r="A12">
         <v>2008</v>
       </c>
@@ -6979,7 +7783,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:13">
       <c r="A13">
         <v>2009</v>
       </c>
@@ -6989,7 +7793,7 @@
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:13">
       <c r="A14">
         <v>2010</v>
       </c>
@@ -6997,7 +7801,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:13">
       <c r="A15">
         <v>2011</v>
       </c>
@@ -7005,7 +7809,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:13">
       <c r="A16">
         <v>2012</v>
       </c>

--- a/市場_2025改修/ソース/master.xlsx
+++ b/市場_2025改修/ソース/master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_Work\Git\si001\市場_2025改修\ソース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C1CBC4-88C9-4D93-8DB6-09B2CC2D7B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{882BA80B-0AE6-4975-BEF0-8B8C941DCA24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="白紙" sheetId="23" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2950" uniqueCount="737">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2950" uniqueCount="738">
   <si>
     <t>テナント名称</t>
   </si>
@@ -3235,11 +3235,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>カナ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ﾀﾝﾖｳｼﾝｷﾝ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ｲｸﾉ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ｶﾅｻｱd1d</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -7673,13 +7677,13 @@
         <v>734</v>
       </c>
       <c r="K2" s="7" t="s">
+        <v>737</v>
+      </c>
+      <c r="L2" s="7" t="s">
         <v>735</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="M2" s="7" t="s">
         <v>736</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="3" spans="1:13">

--- a/市場_2025改修/ソース/master.xlsx
+++ b/市場_2025改修/ソース/master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_Work\Git\si001\市場_2025改修\ソース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{882BA80B-0AE6-4975-BEF0-8B8C941DCA24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C4A68D8-81ED-4475-BD74-C7CDE8B60D5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" firstSheet="16" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="白紙" sheetId="23" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2950" uniqueCount="738">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3010" uniqueCount="728">
   <si>
     <t>テナント名称</t>
   </si>
@@ -2283,9 +2283,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>但陽信用金庫</t>
-  </si>
-  <si>
     <t>本店営業部</t>
   </si>
   <si>
@@ -2786,42 +2783,18 @@
     <t>003</t>
   </si>
   <si>
-    <t>生野</t>
-  </si>
-  <si>
     <t>001</t>
   </si>
   <si>
-    <t>ﾀﾝﾖｳｼﾝｷﾝ</t>
-  </si>
-  <si>
-    <t>粟賀</t>
-  </si>
-  <si>
-    <t>002</t>
-  </si>
-  <si>
-    <t>朝来</t>
-  </si>
-  <si>
-    <t>甘地</t>
-  </si>
-  <si>
     <t>004</t>
   </si>
   <si>
-    <t>香呂</t>
-  </si>
-  <si>
     <t>006</t>
   </si>
   <si>
     <t>007</t>
   </si>
   <si>
-    <t>姫路</t>
-  </si>
-  <si>
     <t>008</t>
   </si>
   <si>
@@ -2834,27 +2807,9 @@
     <t>010</t>
   </si>
   <si>
-    <t>姫路南</t>
-  </si>
-  <si>
-    <t>姫路西</t>
-  </si>
-  <si>
-    <t>北野</t>
-  </si>
-  <si>
-    <t>加古川東</t>
-  </si>
-  <si>
     <t>018</t>
   </si>
   <si>
-    <t>高砂中央</t>
-  </si>
-  <si>
-    <t>大塩</t>
-  </si>
-  <si>
     <t>本荘</t>
   </si>
   <si>
@@ -2864,60 +2819,12 @@
     <t>022</t>
   </si>
   <si>
-    <t>溝口</t>
-  </si>
-  <si>
-    <t>姫路灘</t>
-  </si>
-  <si>
-    <t>神野</t>
-  </si>
-  <si>
-    <t>高砂西</t>
-  </si>
-  <si>
-    <t>姫路東</t>
-  </si>
-  <si>
-    <t>寺前</t>
-  </si>
-  <si>
     <t>尾上</t>
   </si>
   <si>
-    <t>姫路北</t>
-  </si>
-  <si>
-    <t>勝原</t>
-  </si>
-  <si>
-    <t>城西</t>
-  </si>
-  <si>
-    <t>和田山</t>
-  </si>
-  <si>
-    <t>ｲｸﾉ</t>
-  </si>
-  <si>
-    <t>ｱﾜｶﾞ</t>
-  </si>
-  <si>
-    <t>ｱｻｺﾞ</t>
-  </si>
-  <si>
-    <t>ｱﾏｼﾞ</t>
-  </si>
-  <si>
-    <t>ｺｳﾛ</t>
-  </si>
-  <si>
     <t>ﾌｸｻｷ</t>
   </si>
   <si>
-    <t>ﾋﾒｼﾞ</t>
-  </si>
-  <si>
     <t>ｼﾞﾖｳﾎｸ</t>
   </si>
   <si>
@@ -2927,30 +2834,12 @@
     <t>ﾂﾁﾔﾏ</t>
   </si>
   <si>
-    <t>ﾋﾒｼﾞﾐﾅﾐ</t>
-  </si>
-  <si>
     <t>ﾎﾝﾃﾝ</t>
   </si>
   <si>
     <t>ﾍﾞﾌ</t>
   </si>
   <si>
-    <t>ﾋﾒｼﾞﾆｼ</t>
-  </si>
-  <si>
-    <t>ｷﾀﾉ</t>
-  </si>
-  <si>
-    <t>ｶｺｶﾞﾜﾋｶﾞｼ</t>
-  </si>
-  <si>
-    <t>ﾀｶｻｺﾞﾁﾕｳｵｳ</t>
-  </si>
-  <si>
-    <t>ｵｵｼｵ</t>
-  </si>
-  <si>
     <t>ﾎﾝｼﾞﾖｳ</t>
   </si>
   <si>
@@ -2960,43 +2849,13 @@
     <t>ﾋﾗﾉ</t>
   </si>
   <si>
-    <t>ﾐｿﾞｸﾞﾁ</t>
-  </si>
-  <si>
-    <t>ﾋﾒｼﾞﾅﾀﾞ</t>
-  </si>
-  <si>
-    <t>ｶﾝﾉ</t>
-  </si>
-  <si>
-    <t>ﾀｶｻｺﾞﾆｼ</t>
-  </si>
-  <si>
     <t>ｲﾅﾐ</t>
   </si>
   <si>
-    <t>ﾋﾒｼﾞﾋｶﾞｼ</t>
-  </si>
-  <si>
-    <t>ﾃﾗﾏｴ</t>
-  </si>
-  <si>
     <t>ｵﾉｴ</t>
   </si>
   <si>
-    <t>ﾋﾒｼﾞｷﾀ</t>
-  </si>
-  <si>
-    <t>ｶﾂﾊﾗ</t>
-  </si>
-  <si>
-    <t>ｼﾞﾖｳｻｲ</t>
-  </si>
-  <si>
     <t>ｼｶﾏ</t>
-  </si>
-  <si>
-    <t>ﾜﾀﾞﾔﾏ</t>
   </si>
   <si>
     <t>銀行名（半角カナ）</t>
@@ -3211,22 +3070,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>但陽信用金庫</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1696</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>生野</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>001</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>1:普通預金</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -3235,15 +3078,142 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ﾀﾝﾖｳｼﾝｷﾝ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ｲｸﾉ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ｶﾅｻｱd1d</t>
+    <t>姫路信用金庫</t>
+  </si>
+  <si>
+    <t>ﾋﾒｼﾞｼﾝｷﾝ</t>
+  </si>
+  <si>
+    <t>手柄</t>
+  </si>
+  <si>
+    <t>ﾃｶﾞﾗ</t>
+  </si>
+  <si>
+    <t>六甲</t>
+  </si>
+  <si>
+    <t>ﾛﾂｺｳ</t>
+  </si>
+  <si>
+    <t>春日野</t>
+  </si>
+  <si>
+    <t>ｶｽｶﾞﾉ</t>
+  </si>
+  <si>
+    <t>湊川</t>
+  </si>
+  <si>
+    <t>ﾐﾅﾄｶﾞﾜ</t>
+  </si>
+  <si>
+    <t>白国</t>
+  </si>
+  <si>
+    <t>ｼﾗｸﾆ</t>
+  </si>
+  <si>
+    <t>大津</t>
+  </si>
+  <si>
+    <t>ｵｵﾂ</t>
+  </si>
+  <si>
+    <t>野田</t>
+  </si>
+  <si>
+    <t>ﾉﾀﾞ</t>
+  </si>
+  <si>
+    <t>御着</t>
+  </si>
+  <si>
+    <t>ｺﾞﾁﾔｸ</t>
+  </si>
+  <si>
+    <t>飾東</t>
+  </si>
+  <si>
+    <t>ｼｷﾄｳ</t>
+  </si>
+  <si>
+    <t>六角出張所</t>
+  </si>
+  <si>
+    <t>ﾛﾂｶｸ</t>
+  </si>
+  <si>
+    <t>葺合</t>
+  </si>
+  <si>
+    <t>ﾌｷｱｲ</t>
+  </si>
+  <si>
+    <t>丸山</t>
+  </si>
+  <si>
+    <t>ﾏﾙﾔﾏ</t>
+  </si>
+  <si>
+    <t>名倉</t>
+  </si>
+  <si>
+    <t>054</t>
+  </si>
+  <si>
+    <t>ﾅｸﾞﾗ</t>
+  </si>
+  <si>
+    <t>駅南</t>
+  </si>
+  <si>
+    <t>055</t>
+  </si>
+  <si>
+    <t>ｴｷﾐﾅﾐ</t>
+  </si>
+  <si>
+    <t>加東</t>
+  </si>
+  <si>
+    <t>ｶﾄｳ</t>
+  </si>
+  <si>
+    <t>インターネット</t>
+  </si>
+  <si>
+    <t>070</t>
+  </si>
+  <si>
+    <t>ｲﾝﾀ-ﾈﾂﾄ</t>
+  </si>
+  <si>
+    <t>播州信用金庫</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1686</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本店営業部</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>011</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6546565</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ﾊﾞﾝｼﾕｳｼﾝｷﾝ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ﾎﾝﾃﾝ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -5214,22 +5184,22 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
   </sheetData>
@@ -5241,10 +5211,10 @@
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9689966D-31EE-4750-B92F-1DAD82031DE6}">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:J103"/>
+  <dimension ref="A1:F115"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="G76" sqref="G76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5255,7 +5225,7 @@
     <col min="5" max="6" width="16.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>442</v>
       </c>
@@ -5269,2052 +5239,2290 @@
         <v>445</v>
       </c>
       <c r="E1" t="s">
-        <v>663</v>
+        <v>616</v>
       </c>
       <c r="F1" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
+        <v>618</v>
+      </c>
+      <c r="B2">
+        <v>1686</v>
+      </c>
+      <c r="C2" t="s">
         <v>446</v>
       </c>
-      <c r="B2">
-        <v>1696</v>
-      </c>
-      <c r="C2" t="s">
-        <v>592</v>
-      </c>
       <c r="D2" s="8" t="s">
-        <v>593</v>
+        <v>457</v>
       </c>
       <c r="E2" t="s">
-        <v>594</v>
+        <v>619</v>
       </c>
       <c r="F2" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>446</v>
+        <v>618</v>
       </c>
       <c r="B3">
-        <v>1696</v>
+        <v>1686</v>
       </c>
       <c r="C3" t="s">
-        <v>595</v>
+        <v>470</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>596</v>
+        <v>463</v>
       </c>
       <c r="E3" t="s">
-        <v>594</v>
+        <v>619</v>
       </c>
       <c r="F3" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>446</v>
+        <v>618</v>
       </c>
       <c r="B4">
-        <v>1696</v>
+        <v>1686</v>
       </c>
       <c r="C4" t="s">
-        <v>597</v>
+        <v>471</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>591</v>
+        <v>467</v>
       </c>
       <c r="E4" t="s">
-        <v>594</v>
+        <v>619</v>
       </c>
       <c r="F4" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>446</v>
+        <v>618</v>
       </c>
       <c r="B5">
-        <v>1696</v>
+        <v>1686</v>
       </c>
       <c r="C5" t="s">
-        <v>598</v>
+        <v>472</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>599</v>
+        <v>465</v>
       </c>
       <c r="E5" t="s">
-        <v>594</v>
+        <v>619</v>
       </c>
       <c r="F5" t="s">
-        <v>632</v>
-      </c>
-      <c r="J5" s="8"/>
-    </row>
-    <row r="6" spans="1:10">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>446</v>
+        <v>618</v>
       </c>
       <c r="B6">
-        <v>1696</v>
+        <v>1686</v>
       </c>
       <c r="C6" t="s">
-        <v>600</v>
+        <v>473</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>601</v>
+        <v>461</v>
       </c>
       <c r="E6" t="s">
-        <v>594</v>
+        <v>619</v>
       </c>
       <c r="F6" t="s">
-        <v>633</v>
-      </c>
-      <c r="J6" s="8"/>
-    </row>
-    <row r="7" spans="1:10">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>446</v>
+        <v>618</v>
       </c>
       <c r="B7">
-        <v>1696</v>
+        <v>1686</v>
       </c>
       <c r="C7" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>602</v>
+        <v>452</v>
       </c>
       <c r="E7" t="s">
-        <v>594</v>
+        <v>619</v>
       </c>
       <c r="F7" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>446</v>
+        <v>618</v>
       </c>
       <c r="B8">
-        <v>1696</v>
+        <v>1686</v>
       </c>
       <c r="C8" t="s">
-        <v>603</v>
+        <v>475</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>604</v>
+        <v>537</v>
       </c>
       <c r="E8" t="s">
-        <v>594</v>
+        <v>619</v>
       </c>
       <c r="F8" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>446</v>
+        <v>618</v>
       </c>
       <c r="B9">
-        <v>1696</v>
+        <v>1686</v>
       </c>
       <c r="C9" t="s">
-        <v>605</v>
+        <v>476</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>606</v>
+        <v>455</v>
       </c>
       <c r="E9" t="s">
-        <v>594</v>
+        <v>619</v>
       </c>
       <c r="F9" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>446</v>
+        <v>618</v>
       </c>
       <c r="B10">
-        <v>1696</v>
+        <v>1686</v>
       </c>
       <c r="C10" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>607</v>
+        <v>448</v>
       </c>
       <c r="E10" t="s">
-        <v>594</v>
+        <v>619</v>
       </c>
       <c r="F10" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>446</v>
+        <v>618</v>
       </c>
       <c r="B11">
-        <v>1696</v>
+        <v>1686</v>
       </c>
       <c r="C11" t="s">
-        <v>501</v>
+        <v>478</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="E11" t="s">
-        <v>594</v>
+        <v>619</v>
       </c>
       <c r="F11" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>446</v>
+        <v>618</v>
       </c>
       <c r="B12">
-        <v>1696</v>
+        <v>1686</v>
       </c>
       <c r="C12" t="s">
-        <v>608</v>
+        <v>479</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>464</v>
       </c>
       <c r="E12" t="s">
-        <v>594</v>
+        <v>619</v>
       </c>
       <c r="F12" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>446</v>
+        <v>618</v>
       </c>
       <c r="B13">
-        <v>1696</v>
+        <v>1686</v>
       </c>
       <c r="C13" t="s">
-        <v>447</v>
+        <v>480</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>468</v>
       </c>
       <c r="E13" t="s">
-        <v>594</v>
+        <v>619</v>
       </c>
       <c r="F13" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>446</v>
+        <v>618</v>
       </c>
       <c r="B14">
-        <v>1696</v>
+        <v>1686</v>
       </c>
       <c r="C14" t="s">
-        <v>506</v>
+        <v>481</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="E14" t="s">
-        <v>594</v>
+        <v>619</v>
       </c>
       <c r="F14" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>446</v>
+        <v>618</v>
       </c>
       <c r="B15">
-        <v>1696</v>
+        <v>1686</v>
       </c>
       <c r="C15" t="s">
-        <v>609</v>
+        <v>482</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="E15" t="s">
-        <v>594</v>
+        <v>619</v>
       </c>
       <c r="F15" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>446</v>
+        <v>618</v>
       </c>
       <c r="B16">
-        <v>1696</v>
+        <v>1686</v>
       </c>
       <c r="C16" t="s">
-        <v>610</v>
+        <v>483</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="E16" t="s">
-        <v>594</v>
+        <v>619</v>
       </c>
       <c r="F16" t="s">
-        <v>643</v>
+        <v>630</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>446</v>
+        <v>618</v>
       </c>
       <c r="B17">
-        <v>1696</v>
+        <v>1686</v>
       </c>
       <c r="C17" t="s">
-        <v>611</v>
+        <v>484</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>612</v>
+        <v>447</v>
       </c>
       <c r="E17" t="s">
-        <v>594</v>
+        <v>619</v>
       </c>
       <c r="F17" t="s">
-        <v>644</v>
+        <v>631</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>446</v>
+        <v>618</v>
       </c>
       <c r="B18">
-        <v>1696</v>
+        <v>1686</v>
       </c>
       <c r="C18" t="s">
-        <v>613</v>
+        <v>485</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="E18" t="s">
-        <v>594</v>
+        <v>619</v>
       </c>
       <c r="F18" t="s">
-        <v>645</v>
+        <v>632</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>446</v>
+        <v>618</v>
       </c>
       <c r="B19">
-        <v>1696</v>
+        <v>1686</v>
       </c>
       <c r="C19" t="s">
-        <v>614</v>
+        <v>486</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="E19" t="s">
-        <v>594</v>
+        <v>619</v>
       </c>
       <c r="F19" t="s">
-        <v>646</v>
+        <v>633</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>446</v>
+        <v>618</v>
       </c>
       <c r="B20">
-        <v>1696</v>
+        <v>1686</v>
       </c>
       <c r="C20" t="s">
-        <v>615</v>
+        <v>487</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>467</v>
+        <v>449</v>
       </c>
       <c r="E20" t="s">
-        <v>594</v>
+        <v>619</v>
       </c>
       <c r="F20" t="s">
-        <v>647</v>
+        <v>634</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>446</v>
+        <v>618</v>
       </c>
       <c r="B21">
-        <v>1696</v>
+        <v>1686</v>
       </c>
       <c r="C21" t="s">
-        <v>616</v>
+        <v>488</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>617</v>
+        <v>459</v>
       </c>
       <c r="E21" t="s">
-        <v>594</v>
+        <v>619</v>
       </c>
       <c r="F21" t="s">
-        <v>648</v>
+        <v>635</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>446</v>
+        <v>618</v>
       </c>
       <c r="B22">
-        <v>1696</v>
+        <v>1686</v>
       </c>
       <c r="C22" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="E22" t="s">
-        <v>594</v>
+        <v>619</v>
       </c>
       <c r="F22" t="s">
-        <v>649</v>
+        <v>636</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>446</v>
+        <v>618</v>
       </c>
       <c r="B23">
-        <v>1696</v>
+        <v>1686</v>
       </c>
       <c r="C23" t="s">
-        <v>618</v>
+        <v>490</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="E23" t="s">
-        <v>594</v>
+        <v>619</v>
       </c>
       <c r="F23" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>446</v>
+        <v>618</v>
       </c>
       <c r="B24">
-        <v>1696</v>
+        <v>1686</v>
       </c>
       <c r="C24" t="s">
+        <v>491</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="E24" t="s">
         <v>619</v>
       </c>
-      <c r="D24" s="8" t="s">
-        <v>461</v>
-      </c>
-      <c r="E24" t="s">
-        <v>594</v>
-      </c>
       <c r="F24" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>446</v>
+        <v>618</v>
       </c>
       <c r="B25">
-        <v>1696</v>
+        <v>1686</v>
       </c>
       <c r="C25" t="s">
-        <v>620</v>
+        <v>492</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>452</v>
+        <v>469</v>
       </c>
       <c r="E25" t="s">
-        <v>594</v>
+        <v>619</v>
       </c>
       <c r="F25" t="s">
-        <v>652</v>
+        <v>612</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>446</v>
+        <v>618</v>
       </c>
       <c r="B26">
-        <v>1696</v>
+        <v>1686</v>
       </c>
       <c r="C26" t="s">
-        <v>621</v>
+        <v>493</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>457</v>
+        <v>538</v>
       </c>
       <c r="E26" t="s">
-        <v>594</v>
+        <v>619</v>
       </c>
       <c r="F26" t="s">
-        <v>653</v>
+        <v>639</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>446</v>
+        <v>618</v>
       </c>
       <c r="B27">
-        <v>1696</v>
+        <v>1686</v>
       </c>
       <c r="C27" t="s">
-        <v>513</v>
+        <v>494</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>448</v>
+        <v>539</v>
       </c>
       <c r="E27" t="s">
-        <v>594</v>
+        <v>619</v>
       </c>
       <c r="F27" t="s">
-        <v>654</v>
+        <v>640</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>446</v>
+        <v>618</v>
       </c>
       <c r="B28">
-        <v>1696</v>
+        <v>1686</v>
       </c>
       <c r="C28" t="s">
-        <v>622</v>
+        <v>495</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>463</v>
+        <v>540</v>
       </c>
       <c r="E28" t="s">
-        <v>594</v>
+        <v>619</v>
       </c>
       <c r="F28" t="s">
-        <v>655</v>
+        <v>641</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>446</v>
+        <v>618</v>
       </c>
       <c r="B29">
-        <v>1696</v>
+        <v>1686</v>
       </c>
       <c r="C29" t="s">
-        <v>623</v>
+        <v>496</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>459</v>
+        <v>541</v>
       </c>
       <c r="E29" t="s">
-        <v>594</v>
+        <v>619</v>
       </c>
       <c r="F29" t="s">
-        <v>656</v>
+        <v>642</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>446</v>
+        <v>618</v>
       </c>
       <c r="B30">
-        <v>1696</v>
+        <v>1686</v>
       </c>
       <c r="C30" t="s">
-        <v>624</v>
+        <v>497</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>450</v>
+        <v>542</v>
       </c>
       <c r="E30" t="s">
-        <v>594</v>
+        <v>619</v>
       </c>
       <c r="F30" t="s">
-        <v>657</v>
+        <v>643</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>446</v>
+        <v>618</v>
       </c>
       <c r="B31">
-        <v>1696</v>
+        <v>1686</v>
       </c>
       <c r="C31" t="s">
-        <v>625</v>
+        <v>498</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>460</v>
+        <v>543</v>
       </c>
       <c r="E31" t="s">
-        <v>594</v>
+        <v>619</v>
       </c>
       <c r="F31" t="s">
-        <v>658</v>
+        <v>644</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>446</v>
+        <v>618</v>
       </c>
       <c r="B32">
-        <v>1696</v>
+        <v>1686</v>
       </c>
       <c r="C32" t="s">
-        <v>626</v>
+        <v>499</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>451</v>
+        <v>544</v>
       </c>
       <c r="E32" t="s">
-        <v>594</v>
+        <v>619</v>
       </c>
       <c r="F32" t="s">
-        <v>659</v>
+        <v>645</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>446</v>
+        <v>618</v>
       </c>
       <c r="B33">
-        <v>1696</v>
+        <v>1686</v>
       </c>
       <c r="C33" t="s">
-        <v>627</v>
+        <v>500</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>455</v>
+        <v>545</v>
       </c>
       <c r="E33" t="s">
-        <v>594</v>
+        <v>619</v>
       </c>
       <c r="F33" t="s">
-        <v>660</v>
+        <v>607</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>446</v>
+        <v>618</v>
       </c>
       <c r="B34">
-        <v>1696</v>
+        <v>1686</v>
       </c>
       <c r="C34" t="s">
-        <v>481</v>
+        <v>501</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>454</v>
+        <v>546</v>
       </c>
       <c r="E34" t="s">
-        <v>594</v>
+        <v>619</v>
       </c>
       <c r="F34" t="s">
-        <v>661</v>
+        <v>646</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>446</v>
+        <v>618</v>
       </c>
       <c r="B35">
-        <v>1696</v>
+        <v>1686</v>
       </c>
       <c r="C35" t="s">
-        <v>628</v>
+        <v>502</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>470</v>
+        <v>547</v>
       </c>
       <c r="E35" t="s">
-        <v>594</v>
+        <v>619</v>
       </c>
       <c r="F35" t="s">
-        <v>662</v>
+        <v>647</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>665</v>
+        <v>618</v>
       </c>
       <c r="B36">
         <v>1686</v>
       </c>
       <c r="C36" t="s">
-        <v>447</v>
+        <v>503</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>458</v>
+        <v>548</v>
       </c>
       <c r="E36" t="s">
-        <v>666</v>
+        <v>619</v>
       </c>
       <c r="F36" t="s">
-        <v>640</v>
+        <v>648</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>665</v>
+        <v>618</v>
       </c>
       <c r="B37">
         <v>1686</v>
       </c>
       <c r="C37" t="s">
-        <v>471</v>
+        <v>504</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>464</v>
+        <v>549</v>
       </c>
       <c r="E37" t="s">
-        <v>666</v>
+        <v>619</v>
       </c>
       <c r="F37" t="s">
-        <v>667</v>
+        <v>649</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>665</v>
+        <v>618</v>
       </c>
       <c r="B38">
         <v>1686</v>
       </c>
       <c r="C38" t="s">
-        <v>472</v>
+        <v>505</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>468</v>
+        <v>550</v>
       </c>
       <c r="E38" t="s">
-        <v>666</v>
+        <v>619</v>
       </c>
       <c r="F38" t="s">
-        <v>668</v>
+        <v>609</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>665</v>
+        <v>618</v>
       </c>
       <c r="B39">
         <v>1686</v>
       </c>
       <c r="C39" t="s">
-        <v>473</v>
+        <v>506</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>466</v>
+        <v>551</v>
       </c>
       <c r="E39" t="s">
-        <v>666</v>
+        <v>619</v>
       </c>
       <c r="F39" t="s">
-        <v>669</v>
+        <v>650</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>665</v>
+        <v>618</v>
       </c>
       <c r="B40">
         <v>1686</v>
       </c>
       <c r="C40" t="s">
-        <v>474</v>
+        <v>507</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>462</v>
+        <v>552</v>
       </c>
       <c r="E40" t="s">
-        <v>666</v>
+        <v>619</v>
       </c>
       <c r="F40" t="s">
-        <v>637</v>
+        <v>651</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>665</v>
+        <v>618</v>
       </c>
       <c r="B41">
         <v>1686</v>
       </c>
       <c r="C41" t="s">
-        <v>475</v>
+        <v>508</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>453</v>
+        <v>553</v>
       </c>
       <c r="E41" t="s">
-        <v>666</v>
+        <v>619</v>
       </c>
       <c r="F41" t="s">
-        <v>670</v>
+        <v>652</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>665</v>
+        <v>618</v>
       </c>
       <c r="B42">
         <v>1686</v>
       </c>
       <c r="C42" t="s">
-        <v>476</v>
+        <v>509</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>538</v>
+        <v>554</v>
       </c>
       <c r="E42" t="s">
-        <v>666</v>
+        <v>619</v>
       </c>
       <c r="F42" t="s">
-        <v>671</v>
+        <v>653</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>665</v>
+        <v>618</v>
       </c>
       <c r="B43">
         <v>1686</v>
       </c>
       <c r="C43" t="s">
-        <v>477</v>
+        <v>510</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>456</v>
+        <v>555</v>
       </c>
       <c r="E43" t="s">
-        <v>666</v>
+        <v>619</v>
       </c>
       <c r="F43" t="s">
-        <v>672</v>
+        <v>654</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>665</v>
+        <v>618</v>
       </c>
       <c r="B44">
         <v>1686</v>
       </c>
       <c r="C44" t="s">
-        <v>478</v>
+        <v>511</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>449</v>
+        <v>556</v>
       </c>
       <c r="E44" t="s">
-        <v>666</v>
+        <v>619</v>
       </c>
       <c r="F44" t="s">
-        <v>673</v>
+        <v>655</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>665</v>
+        <v>618</v>
       </c>
       <c r="B45">
         <v>1686</v>
       </c>
       <c r="C45" t="s">
-        <v>479</v>
+        <v>512</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>467</v>
+        <v>557</v>
       </c>
       <c r="E45" t="s">
-        <v>666</v>
+        <v>619</v>
       </c>
       <c r="F45" t="s">
-        <v>674</v>
+        <v>613</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>665</v>
+        <v>618</v>
       </c>
       <c r="B46">
         <v>1686</v>
       </c>
       <c r="C46" t="s">
-        <v>480</v>
+        <v>513</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>465</v>
+        <v>558</v>
       </c>
       <c r="E46" t="s">
-        <v>666</v>
+        <v>619</v>
       </c>
       <c r="F46" t="s">
-        <v>634</v>
+        <v>656</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>665</v>
+        <v>618</v>
       </c>
       <c r="B47">
         <v>1686</v>
       </c>
       <c r="C47" t="s">
-        <v>481</v>
+        <v>514</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>469</v>
+        <v>559</v>
       </c>
       <c r="E47" t="s">
-        <v>666</v>
+        <v>619</v>
       </c>
       <c r="F47" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>665</v>
+        <v>618</v>
       </c>
       <c r="B48">
         <v>1686</v>
       </c>
       <c r="C48" t="s">
-        <v>482</v>
+        <v>515</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>461</v>
+        <v>560</v>
       </c>
       <c r="E48" t="s">
-        <v>666</v>
+        <v>619</v>
       </c>
       <c r="F48" t="s">
-        <v>675</v>
+        <v>658</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>665</v>
+        <v>618</v>
       </c>
       <c r="B49">
         <v>1686</v>
       </c>
       <c r="C49" t="s">
-        <v>483</v>
+        <v>516</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>452</v>
+        <v>561</v>
       </c>
       <c r="E49" t="s">
-        <v>666</v>
+        <v>619</v>
       </c>
       <c r="F49" t="s">
-        <v>676</v>
+        <v>659</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>665</v>
+        <v>618</v>
       </c>
       <c r="B50">
         <v>1686</v>
       </c>
       <c r="C50" t="s">
-        <v>484</v>
+        <v>517</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>457</v>
+        <v>562</v>
       </c>
       <c r="E50" t="s">
-        <v>666</v>
+        <v>619</v>
       </c>
       <c r="F50" t="s">
-        <v>677</v>
+        <v>660</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>665</v>
+        <v>618</v>
       </c>
       <c r="B51">
         <v>1686</v>
       </c>
       <c r="C51" t="s">
-        <v>485</v>
+        <v>518</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>448</v>
+        <v>563</v>
       </c>
       <c r="E51" t="s">
-        <v>666</v>
+        <v>619</v>
       </c>
       <c r="F51" t="s">
-        <v>678</v>
+        <v>661</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>665</v>
+        <v>618</v>
       </c>
       <c r="B52">
         <v>1686</v>
       </c>
       <c r="C52" t="s">
-        <v>486</v>
+        <v>519</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>463</v>
+        <v>564</v>
       </c>
       <c r="E52" t="s">
-        <v>666</v>
+        <v>619</v>
       </c>
       <c r="F52" t="s">
-        <v>679</v>
+        <v>662</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>665</v>
+        <v>618</v>
       </c>
       <c r="B53">
         <v>1686</v>
       </c>
       <c r="C53" t="s">
-        <v>487</v>
+        <v>520</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>459</v>
+        <v>565</v>
       </c>
       <c r="E53" t="s">
-        <v>666</v>
+        <v>619</v>
       </c>
       <c r="F53" t="s">
-        <v>680</v>
+        <v>663</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>665</v>
+        <v>618</v>
       </c>
       <c r="B54">
         <v>1686</v>
       </c>
       <c r="C54" t="s">
-        <v>488</v>
+        <v>521</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>450</v>
+        <v>566</v>
       </c>
       <c r="E54" t="s">
-        <v>666</v>
+        <v>619</v>
       </c>
       <c r="F54" t="s">
-        <v>681</v>
+        <v>664</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>665</v>
+        <v>618</v>
       </c>
       <c r="B55">
         <v>1686</v>
       </c>
       <c r="C55" t="s">
-        <v>489</v>
+        <v>522</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>460</v>
+        <v>567</v>
       </c>
       <c r="E55" t="s">
-        <v>666</v>
+        <v>619</v>
       </c>
       <c r="F55" t="s">
-        <v>682</v>
+        <v>665</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>665</v>
+        <v>618</v>
       </c>
       <c r="B56">
         <v>1686</v>
       </c>
       <c r="C56" t="s">
-        <v>490</v>
+        <v>523</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>451</v>
+        <v>568</v>
       </c>
       <c r="E56" t="s">
+        <v>619</v>
+      </c>
+      <c r="F56" t="s">
         <v>666</v>
-      </c>
-      <c r="F56" t="s">
-        <v>683</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>665</v>
+        <v>618</v>
       </c>
       <c r="B57">
         <v>1686</v>
       </c>
       <c r="C57" t="s">
-        <v>491</v>
+        <v>524</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>455</v>
+        <v>569</v>
       </c>
       <c r="E57" t="s">
-        <v>666</v>
+        <v>619</v>
       </c>
       <c r="F57" t="s">
-        <v>684</v>
+        <v>667</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>665</v>
+        <v>618</v>
       </c>
       <c r="B58">
         <v>1686</v>
       </c>
       <c r="C58" t="s">
-        <v>492</v>
+        <v>525</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>454</v>
+        <v>570</v>
       </c>
       <c r="E58" t="s">
-        <v>666</v>
+        <v>619</v>
       </c>
       <c r="F58" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>665</v>
+        <v>618</v>
       </c>
       <c r="B59">
         <v>1686</v>
       </c>
       <c r="C59" t="s">
-        <v>493</v>
+        <v>526</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>470</v>
+        <v>571</v>
       </c>
       <c r="E59" t="s">
-        <v>666</v>
+        <v>619</v>
       </c>
       <c r="F59" t="s">
-        <v>649</v>
+        <v>669</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>665</v>
+        <v>618</v>
       </c>
       <c r="B60">
         <v>1686</v>
       </c>
       <c r="C60" t="s">
-        <v>494</v>
+        <v>527</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>539</v>
+        <v>572</v>
       </c>
       <c r="E60" t="s">
-        <v>666</v>
+        <v>619</v>
       </c>
       <c r="F60" t="s">
-        <v>686</v>
+        <v>670</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>665</v>
+        <v>618</v>
       </c>
       <c r="B61">
         <v>1686</v>
       </c>
       <c r="C61" t="s">
-        <v>495</v>
+        <v>528</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>540</v>
+        <v>573</v>
       </c>
       <c r="E61" t="s">
-        <v>666</v>
+        <v>619</v>
       </c>
       <c r="F61" t="s">
-        <v>687</v>
+        <v>671</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>665</v>
+        <v>618</v>
       </c>
       <c r="B62">
         <v>1686</v>
       </c>
       <c r="C62" t="s">
-        <v>496</v>
+        <v>529</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>541</v>
+        <v>574</v>
       </c>
       <c r="E62" t="s">
-        <v>666</v>
+        <v>619</v>
       </c>
       <c r="F62" t="s">
-        <v>688</v>
+        <v>672</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>665</v>
+        <v>618</v>
       </c>
       <c r="B63">
         <v>1686</v>
       </c>
       <c r="C63" t="s">
-        <v>497</v>
+        <v>530</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>542</v>
+        <v>575</v>
       </c>
       <c r="E63" t="s">
-        <v>666</v>
+        <v>619</v>
       </c>
       <c r="F63" t="s">
-        <v>689</v>
+        <v>673</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>665</v>
+        <v>618</v>
       </c>
       <c r="B64">
         <v>1686</v>
       </c>
       <c r="C64" t="s">
-        <v>498</v>
+        <v>531</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>543</v>
+        <v>576</v>
       </c>
       <c r="E64" t="s">
-        <v>666</v>
+        <v>619</v>
       </c>
       <c r="F64" t="s">
-        <v>690</v>
+        <v>674</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>665</v>
+        <v>618</v>
       </c>
       <c r="B65">
         <v>1686</v>
       </c>
       <c r="C65" t="s">
-        <v>499</v>
+        <v>532</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>544</v>
+        <v>577</v>
       </c>
       <c r="E65" t="s">
-        <v>666</v>
+        <v>619</v>
       </c>
       <c r="F65" t="s">
-        <v>691</v>
+        <v>675</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>665</v>
+        <v>618</v>
       </c>
       <c r="B66">
         <v>1686</v>
       </c>
       <c r="C66" t="s">
-        <v>500</v>
+        <v>533</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>545</v>
+        <v>578</v>
       </c>
       <c r="E66" t="s">
-        <v>666</v>
+        <v>619</v>
       </c>
       <c r="F66" t="s">
-        <v>692</v>
+        <v>676</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>665</v>
+        <v>618</v>
       </c>
       <c r="B67">
         <v>1686</v>
       </c>
       <c r="C67" t="s">
-        <v>501</v>
+        <v>534</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>546</v>
+        <v>579</v>
       </c>
       <c r="E67" t="s">
-        <v>666</v>
+        <v>619</v>
       </c>
       <c r="F67" t="s">
-        <v>638</v>
+        <v>677</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>665</v>
+        <v>618</v>
       </c>
       <c r="B68">
         <v>1686</v>
       </c>
       <c r="C68" t="s">
-        <v>502</v>
+        <v>535</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>547</v>
+        <v>580</v>
       </c>
       <c r="E68" t="s">
-        <v>666</v>
+        <v>619</v>
       </c>
       <c r="F68" t="s">
-        <v>693</v>
+        <v>678</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>665</v>
+        <v>618</v>
       </c>
       <c r="B69">
         <v>1686</v>
       </c>
       <c r="C69" t="s">
-        <v>503</v>
+        <v>536</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>548</v>
+        <v>581</v>
       </c>
       <c r="E69" t="s">
-        <v>666</v>
+        <v>619</v>
       </c>
       <c r="F69" t="s">
-        <v>694</v>
+        <v>679</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>665</v>
+        <v>684</v>
       </c>
       <c r="B70">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="C70" t="s">
-        <v>504</v>
+        <v>446</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>549</v>
+        <v>591</v>
       </c>
       <c r="E70" t="s">
-        <v>666</v>
+        <v>685</v>
       </c>
       <c r="F70" t="s">
-        <v>695</v>
+        <v>608</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>665</v>
+        <v>684</v>
       </c>
       <c r="B71">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="C71" t="s">
-        <v>505</v>
+        <v>476</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>550</v>
+        <v>590</v>
       </c>
       <c r="E71" t="s">
-        <v>666</v>
+        <v>685</v>
       </c>
       <c r="F71" t="s">
-        <v>696</v>
+        <v>625</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>665</v>
+        <v>684</v>
       </c>
       <c r="B72">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="C72" t="s">
-        <v>506</v>
+        <v>491</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>551</v>
+        <v>592</v>
       </c>
       <c r="E72" t="s">
-        <v>666</v>
+        <v>685</v>
       </c>
       <c r="F72" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>665</v>
+        <v>684</v>
       </c>
       <c r="B73">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="C73" t="s">
-        <v>507</v>
+        <v>472</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>552</v>
+        <v>593</v>
       </c>
       <c r="E73" t="s">
-        <v>666</v>
+        <v>685</v>
       </c>
       <c r="F73" t="s">
-        <v>697</v>
+        <v>622</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>665</v>
+        <v>684</v>
       </c>
       <c r="B74">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="C74" t="s">
-        <v>508</v>
+        <v>480</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>553</v>
+        <v>594</v>
       </c>
       <c r="E74" t="s">
-        <v>666</v>
+        <v>685</v>
       </c>
       <c r="F74" t="s">
-        <v>698</v>
+        <v>615</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>665</v>
+        <v>684</v>
       </c>
       <c r="B75">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="C75" t="s">
-        <v>509</v>
+        <v>686</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>554</v>
+        <v>595</v>
       </c>
       <c r="E75" t="s">
-        <v>666</v>
+        <v>685</v>
       </c>
       <c r="F75" t="s">
-        <v>699</v>
+        <v>687</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>665</v>
+        <v>684</v>
       </c>
       <c r="B76">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="C76" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>555</v>
+        <v>597</v>
       </c>
       <c r="E76" t="s">
-        <v>666</v>
+        <v>685</v>
       </c>
       <c r="F76" t="s">
-        <v>700</v>
+        <v>646</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" t="s">
-        <v>665</v>
+        <v>684</v>
       </c>
       <c r="B77">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="C77" t="s">
-        <v>511</v>
+        <v>470</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>556</v>
+        <v>598</v>
       </c>
       <c r="E77" t="s">
-        <v>666</v>
+        <v>685</v>
       </c>
       <c r="F77" t="s">
-        <v>701</v>
+        <v>620</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>665</v>
+        <v>684</v>
       </c>
       <c r="B78">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="C78" t="s">
-        <v>512</v>
+        <v>473</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>557</v>
+        <v>457</v>
       </c>
       <c r="E78" t="s">
-        <v>666</v>
+        <v>685</v>
       </c>
       <c r="F78" t="s">
-        <v>702</v>
+        <v>606</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" t="s">
-        <v>665</v>
+        <v>684</v>
       </c>
       <c r="B79">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="C79" t="s">
-        <v>513</v>
+        <v>493</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>558</v>
+        <v>463</v>
       </c>
       <c r="E79" t="s">
-        <v>666</v>
+        <v>685</v>
       </c>
       <c r="F79" t="s">
-        <v>654</v>
+        <v>639</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" t="s">
-        <v>665</v>
+        <v>684</v>
       </c>
       <c r="B80">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="C80" t="s">
-        <v>514</v>
+        <v>475</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>559</v>
+        <v>467</v>
       </c>
       <c r="E80" t="s">
-        <v>666</v>
+        <v>685</v>
       </c>
       <c r="F80" t="s">
-        <v>703</v>
+        <v>624</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" t="s">
-        <v>665</v>
+        <v>684</v>
       </c>
       <c r="B81">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="C81" t="s">
-        <v>515</v>
+        <v>526</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>560</v>
+        <v>465</v>
       </c>
       <c r="E81" t="s">
-        <v>666</v>
+        <v>685</v>
       </c>
       <c r="F81" t="s">
-        <v>704</v>
+        <v>669</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>665</v>
+        <v>684</v>
       </c>
       <c r="B82">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="C82" t="s">
-        <v>516</v>
+        <v>481</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>561</v>
+        <v>461</v>
       </c>
       <c r="E82" t="s">
-        <v>666</v>
+        <v>685</v>
       </c>
       <c r="F82" t="s">
-        <v>705</v>
+        <v>628</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" t="s">
-        <v>665</v>
+        <v>684</v>
       </c>
       <c r="B83">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="C83" t="s">
-        <v>517</v>
+        <v>487</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>562</v>
+        <v>452</v>
       </c>
       <c r="E83" t="s">
-        <v>666</v>
+        <v>685</v>
       </c>
       <c r="F83" t="s">
-        <v>706</v>
+        <v>634</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" t="s">
-        <v>665</v>
+        <v>684</v>
       </c>
       <c r="B84">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="C84" t="s">
-        <v>518</v>
+        <v>688</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>563</v>
+        <v>537</v>
       </c>
       <c r="E84" t="s">
-        <v>666</v>
+        <v>685</v>
       </c>
       <c r="F84" t="s">
-        <v>707</v>
+        <v>689</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" t="s">
-        <v>665</v>
+        <v>684</v>
       </c>
       <c r="B85">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="C85" t="s">
-        <v>519</v>
+        <v>690</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>564</v>
+        <v>599</v>
       </c>
       <c r="E85" t="s">
-        <v>666</v>
+        <v>685</v>
       </c>
       <c r="F85" t="s">
-        <v>708</v>
+        <v>691</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" t="s">
-        <v>665</v>
+        <v>684</v>
       </c>
       <c r="B86">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="C86" t="s">
-        <v>520</v>
+        <v>692</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>565</v>
+        <v>455</v>
       </c>
       <c r="E86" t="s">
-        <v>666</v>
+        <v>685</v>
       </c>
       <c r="F86" t="s">
-        <v>709</v>
+        <v>693</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" t="s">
-        <v>665</v>
+        <v>684</v>
       </c>
       <c r="B87">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="C87" t="s">
-        <v>521</v>
+        <v>483</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>566</v>
+        <v>448</v>
       </c>
       <c r="E87" t="s">
-        <v>666</v>
+        <v>685</v>
       </c>
       <c r="F87" t="s">
-        <v>710</v>
+        <v>630</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" t="s">
-        <v>665</v>
+        <v>684</v>
       </c>
       <c r="B88">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="C88" t="s">
-        <v>522</v>
+        <v>603</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>567</v>
+        <v>466</v>
       </c>
       <c r="E88" t="s">
-        <v>666</v>
+        <v>685</v>
       </c>
       <c r="F88" t="s">
-        <v>711</v>
+        <v>614</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" t="s">
-        <v>665</v>
+        <v>684</v>
       </c>
       <c r="B89">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="C89" t="s">
-        <v>523</v>
+        <v>502</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>568</v>
+        <v>602</v>
       </c>
       <c r="E89" t="s">
-        <v>666</v>
+        <v>685</v>
       </c>
       <c r="F89" t="s">
-        <v>712</v>
+        <v>647</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" t="s">
-        <v>665</v>
+        <v>684</v>
       </c>
       <c r="B90">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="C90" t="s">
-        <v>524</v>
+        <v>694</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>569</v>
+        <v>464</v>
       </c>
       <c r="E90" t="s">
-        <v>666</v>
+        <v>685</v>
       </c>
       <c r="F90" t="s">
-        <v>713</v>
+        <v>695</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" t="s">
-        <v>665</v>
+        <v>684</v>
       </c>
       <c r="B91">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="C91" t="s">
-        <v>525</v>
+        <v>696</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>570</v>
+        <v>468</v>
       </c>
       <c r="E91" t="s">
-        <v>666</v>
+        <v>685</v>
       </c>
       <c r="F91" t="s">
-        <v>714</v>
+        <v>697</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" t="s">
-        <v>665</v>
+        <v>684</v>
       </c>
       <c r="B92">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="C92" t="s">
-        <v>526</v>
+        <v>698</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>571</v>
+        <v>460</v>
       </c>
       <c r="E92" t="s">
-        <v>666</v>
+        <v>685</v>
       </c>
       <c r="F92" t="s">
-        <v>715</v>
+        <v>699</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" t="s">
-        <v>665</v>
+        <v>684</v>
       </c>
       <c r="B93">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="C93" t="s">
-        <v>527</v>
+        <v>495</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>572</v>
+        <v>451</v>
       </c>
       <c r="E93" t="s">
-        <v>666</v>
+        <v>685</v>
       </c>
       <c r="F93" t="s">
-        <v>716</v>
+        <v>641</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" t="s">
-        <v>665</v>
+        <v>684</v>
       </c>
       <c r="B94">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="C94" t="s">
         <v>528</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>573</v>
+        <v>456</v>
       </c>
       <c r="E94" t="s">
-        <v>666</v>
+        <v>685</v>
       </c>
       <c r="F94" t="s">
-        <v>717</v>
+        <v>671</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" t="s">
-        <v>665</v>
+        <v>684</v>
       </c>
       <c r="B95">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="C95" t="s">
-        <v>529</v>
+        <v>485</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>574</v>
+        <v>447</v>
       </c>
       <c r="E95" t="s">
-        <v>666</v>
+        <v>685</v>
       </c>
       <c r="F95" t="s">
-        <v>718</v>
+        <v>632</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" t="s">
-        <v>665</v>
+        <v>684</v>
       </c>
       <c r="B96">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="C96" t="s">
-        <v>530</v>
+        <v>700</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>575</v>
+        <v>462</v>
       </c>
       <c r="E96" t="s">
-        <v>666</v>
+        <v>685</v>
       </c>
       <c r="F96" t="s">
-        <v>719</v>
+        <v>701</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" t="s">
-        <v>665</v>
+        <v>684</v>
       </c>
       <c r="B97">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="C97" t="s">
-        <v>531</v>
+        <v>498</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>576</v>
+        <v>458</v>
       </c>
       <c r="E97" t="s">
-        <v>666</v>
+        <v>685</v>
       </c>
       <c r="F97" t="s">
-        <v>720</v>
+        <v>644</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" t="s">
-        <v>665</v>
+        <v>684</v>
       </c>
       <c r="B98">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="C98" t="s">
-        <v>532</v>
+        <v>702</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>577</v>
+        <v>449</v>
       </c>
       <c r="E98" t="s">
-        <v>666</v>
+        <v>685</v>
       </c>
       <c r="F98" t="s">
-        <v>721</v>
+        <v>703</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" t="s">
-        <v>665</v>
+        <v>684</v>
       </c>
       <c r="B99">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="C99" t="s">
-        <v>533</v>
+        <v>596</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>578</v>
+        <v>459</v>
       </c>
       <c r="E99" t="s">
-        <v>666</v>
+        <v>685</v>
       </c>
       <c r="F99" t="s">
-        <v>722</v>
+        <v>605</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" t="s">
-        <v>665</v>
+        <v>684</v>
       </c>
       <c r="B100">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="C100" t="s">
-        <v>534</v>
+        <v>509</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>579</v>
+        <v>450</v>
       </c>
       <c r="E100" t="s">
-        <v>666</v>
+        <v>685</v>
       </c>
       <c r="F100" t="s">
-        <v>723</v>
+        <v>653</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" t="s">
-        <v>665</v>
+        <v>684</v>
       </c>
       <c r="B101">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="C101" t="s">
-        <v>535</v>
+        <v>704</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>580</v>
+        <v>454</v>
       </c>
       <c r="E101" t="s">
-        <v>666</v>
+        <v>685</v>
       </c>
       <c r="F101" t="s">
-        <v>724</v>
+        <v>705</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" t="s">
-        <v>665</v>
+        <v>684</v>
       </c>
       <c r="B102">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="C102" t="s">
-        <v>536</v>
+        <v>600</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>581</v>
+        <v>540</v>
       </c>
       <c r="E102" t="s">
-        <v>666</v>
+        <v>685</v>
       </c>
       <c r="F102" t="s">
-        <v>725</v>
+        <v>610</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" t="s">
-        <v>665</v>
+        <v>684</v>
       </c>
       <c r="B103">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="C103" t="s">
-        <v>537</v>
+        <v>479</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>582</v>
+        <v>542</v>
       </c>
       <c r="E103" t="s">
-        <v>666</v>
+        <v>685</v>
       </c>
       <c r="F103" t="s">
-        <v>726</v>
+        <v>604</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" t="s">
+        <v>684</v>
+      </c>
+      <c r="B104">
+        <v>1685</v>
+      </c>
+      <c r="C104" t="s">
+        <v>477</v>
+      </c>
+      <c r="D104" s="8" t="s">
+        <v>543</v>
+      </c>
+      <c r="E104" t="s">
+        <v>685</v>
+      </c>
+      <c r="F104" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" t="s">
+        <v>684</v>
+      </c>
+      <c r="B105">
+        <v>1685</v>
+      </c>
+      <c r="C105" t="s">
+        <v>506</v>
+      </c>
+      <c r="D105" s="8" t="s">
+        <v>544</v>
+      </c>
+      <c r="E105" t="s">
+        <v>685</v>
+      </c>
+      <c r="F105" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" t="s">
+        <v>684</v>
+      </c>
+      <c r="B106">
+        <v>1685</v>
+      </c>
+      <c r="C106" t="s">
+        <v>496</v>
+      </c>
+      <c r="D106" s="8" t="s">
+        <v>545</v>
+      </c>
+      <c r="E106" t="s">
+        <v>685</v>
+      </c>
+      <c r="F106" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" t="s">
+        <v>684</v>
+      </c>
+      <c r="B107">
+        <v>1685</v>
+      </c>
+      <c r="C107" t="s">
+        <v>601</v>
+      </c>
+      <c r="D107" s="8" t="s">
+        <v>546</v>
+      </c>
+      <c r="E107" t="s">
+        <v>685</v>
+      </c>
+      <c r="F107" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" t="s">
+        <v>684</v>
+      </c>
+      <c r="B108">
+        <v>1685</v>
+      </c>
+      <c r="C108" t="s">
+        <v>507</v>
+      </c>
+      <c r="D108" s="8" t="s">
+        <v>548</v>
+      </c>
+      <c r="E108" t="s">
+        <v>685</v>
+      </c>
+      <c r="F108" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" t="s">
+        <v>684</v>
+      </c>
+      <c r="B109">
+        <v>1685</v>
+      </c>
+      <c r="C109" t="s">
+        <v>706</v>
+      </c>
+      <c r="D109" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="E109" t="s">
+        <v>685</v>
+      </c>
+      <c r="F109" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" t="s">
+        <v>684</v>
+      </c>
+      <c r="B110">
+        <v>1685</v>
+      </c>
+      <c r="C110" t="s">
+        <v>708</v>
+      </c>
+      <c r="D110" s="8" t="s">
+        <v>554</v>
+      </c>
+      <c r="E110" t="s">
+        <v>685</v>
+      </c>
+      <c r="F110" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" t="s">
+        <v>684</v>
+      </c>
+      <c r="B111">
+        <v>1685</v>
+      </c>
+      <c r="C111" t="s">
+        <v>710</v>
+      </c>
+      <c r="D111" s="8" t="s">
+        <v>711</v>
+      </c>
+      <c r="E111" t="s">
+        <v>685</v>
+      </c>
+      <c r="F111" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" t="s">
+        <v>684</v>
+      </c>
+      <c r="B112">
+        <v>1685</v>
+      </c>
+      <c r="C112" t="s">
+        <v>713</v>
+      </c>
+      <c r="D112" s="8" t="s">
+        <v>714</v>
+      </c>
+      <c r="E112" t="s">
+        <v>685</v>
+      </c>
+      <c r="F112" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" t="s">
+        <v>684</v>
+      </c>
+      <c r="B113">
+        <v>1685</v>
+      </c>
+      <c r="C113" t="s">
+        <v>716</v>
+      </c>
+      <c r="D113" s="8" t="s">
+        <v>555</v>
+      </c>
+      <c r="E113" t="s">
+        <v>685</v>
+      </c>
+      <c r="F113" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" t="s">
+        <v>684</v>
+      </c>
+      <c r="B114">
+        <v>1685</v>
+      </c>
+      <c r="C114" t="s">
+        <v>500</v>
+      </c>
+      <c r="D114" s="8" t="s">
+        <v>556</v>
+      </c>
+      <c r="E114" t="s">
+        <v>685</v>
+      </c>
+      <c r="F114" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" t="s">
+        <v>684</v>
+      </c>
+      <c r="B115">
+        <v>1685</v>
+      </c>
+      <c r="C115" t="s">
+        <v>718</v>
+      </c>
+      <c r="D115" s="8" t="s">
+        <v>719</v>
+      </c>
+      <c r="E115" t="s">
+        <v>685</v>
+      </c>
+      <c r="F115" t="s">
+        <v>720</v>
       </c>
     </row>
   </sheetData>
@@ -7549,29 +7757,29 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B20">
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C21" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C22" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
   </sheetData>
@@ -7585,7 +7793,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:M166"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:D67"/>
     </sheetView>
   </sheetViews>
@@ -7639,10 +7847,10 @@
         <v>439</v>
       </c>
       <c r="L1" t="s">
-        <v>727</v>
+        <v>680</v>
       </c>
       <c r="M1" t="s">
-        <v>728</v>
+        <v>681</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -7659,31 +7867,31 @@
         <v>183</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>731</v>
+        <v>723</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>732</v>
+        <v>724</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>733</v>
+        <v>682</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>734</v>
+        <v>683</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>737</v>
+        <v>725</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>735</v>
+        <v>726</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
     </row>
     <row r="3" spans="1:13">

--- a/市場_2025改修/ソース/master.xlsx
+++ b/市場_2025改修/ソース/master.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_Work\Git\si001\市場_2025改修\ソース\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\works\Git\si001\市場_2025改修\ソース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C4A68D8-81ED-4475-BD74-C7CDE8B60D5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{579DD5FA-80C8-49C2-8564-8421B82A608D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" firstSheet="16" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="8328" yWindow="4320" windowWidth="1992" windowHeight="996" firstSheet="16" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="白紙" sheetId="23" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3010" uniqueCount="728">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3009" uniqueCount="728">
   <si>
     <t>テナント名称</t>
   </si>
@@ -3715,7 +3715,7 @@
       <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3731,10 +3731,10 @@
       <selection activeCell="A2" sqref="A2:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="11.25" customWidth="1"/>
-    <col min="2" max="2" width="11.375" customWidth="1"/>
+    <col min="1" max="1" width="11.21875" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3780,7 +3780,7 @@
       <selection activeCell="A2" sqref="A2:F55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
@@ -4738,7 +4738,7 @@
       <selection activeCell="A2" sqref="A2:E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
@@ -4915,10 +4915,10 @@
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="12.875" customWidth="1"/>
-    <col min="2" max="2" width="15.125" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -5030,7 +5030,7 @@
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
   </cols>
@@ -5098,10 +5098,10 @@
       <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="2" max="2" width="60.625" customWidth="1"/>
-    <col min="3" max="3" width="11.25" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -5172,9 +5172,9 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="22.625" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -5217,12 +5217,12 @@
       <selection activeCell="G76" sqref="G76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="15.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -7540,11 +7540,11 @@
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="25.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.125" customWidth="1"/>
-    <col min="3" max="3" width="21.25" customWidth="1"/>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" customWidth="1"/>
+    <col min="3" max="3" width="21.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -7743,9 +7743,7 @@
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="B15" s="7" t="s">
-        <v>426</v>
-      </c>
+      <c r="B15" s="7"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
@@ -7797,19 +7795,19 @@
       <selection activeCell="A2" sqref="A2:D67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5" customWidth="1"/>
-    <col min="4" max="4" width="18.625" customWidth="1"/>
-    <col min="5" max="5" width="14.5" customWidth="1"/>
-    <col min="6" max="6" width="12.875" customWidth="1"/>
-    <col min="7" max="7" width="13.25" customWidth="1"/>
-    <col min="8" max="8" width="15.5" customWidth="1"/>
-    <col min="9" max="9" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" customWidth="1"/>
+    <col min="7" max="7" width="13.21875" customWidth="1"/>
+    <col min="8" max="8" width="15.44140625" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -8469,13 +8467,13 @@
       <selection activeCell="A2" sqref="A2:E158"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -11181,9 +11179,9 @@
       <selection activeCell="A2" sqref="A2:C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="2" max="2" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -11534,14 +11532,14 @@
       <selection activeCell="A2" sqref="A2:M409"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="2" width="12.625" customWidth="1"/>
-    <col min="6" max="6" width="14.125" customWidth="1"/>
-    <col min="7" max="7" width="16.25" customWidth="1"/>
-    <col min="8" max="8" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.375" customWidth="1"/>
+    <col min="1" max="2" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" customWidth="1"/>
+    <col min="7" max="7" width="16.21875" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.33203125" customWidth="1"/>
     <col min="11" max="11" width="9" customWidth="1"/>
     <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
   </cols>
@@ -22791,10 +22789,10 @@
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -23596,11 +23594,11 @@
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.875" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -23690,7 +23688,7 @@
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="4" t="s">

--- a/市場_2025改修/ソース/master.xlsx
+++ b/市場_2025改修/ソース/master.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\works\Git\si001\市場_2025改修\ソース\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_Work\Git\si001\市場_2025改修\ソース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{579DD5FA-80C8-49C2-8564-8421B82A608D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B56C4546-0C13-4E16-992E-B446882337C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="8328" yWindow="4320" windowWidth="1992" windowHeight="996" firstSheet="16" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="8325" yWindow="4320" windowWidth="2040" windowHeight="990" firstSheet="16" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="白紙" sheetId="23" r:id="rId1"/>
@@ -3715,7 +3715,7 @@
       <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3731,10 +3731,10 @@
       <selection activeCell="A2" sqref="A2:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.21875" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="1" max="1" width="11.25" customWidth="1"/>
+    <col min="2" max="2" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3780,7 +3780,7 @@
       <selection activeCell="A2" sqref="A2:F55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
@@ -4738,7 +4738,7 @@
       <selection activeCell="A2" sqref="A2:E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
@@ -4912,13 +4912,13 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="A2" sqref="A2:E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" customWidth="1"/>
+    <col min="1" max="1" width="12.875" customWidth="1"/>
+    <col min="2" max="2" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -5027,10 +5027,10 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="A2" sqref="A2:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
   </cols>
@@ -5098,10 +5098,10 @@
       <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="60.6640625" customWidth="1"/>
-    <col min="3" max="3" width="11.21875" customWidth="1"/>
+    <col min="2" max="2" width="60.625" customWidth="1"/>
+    <col min="3" max="3" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -5172,9 +5172,9 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" customWidth="1"/>
+    <col min="1" max="1" width="22.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -5217,12 +5217,12 @@
       <selection activeCell="G76" sqref="G76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -7540,11 +7540,11 @@
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.109375" customWidth="1"/>
-    <col min="3" max="3" width="21.21875" customWidth="1"/>
+    <col min="1" max="1" width="25.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.125" customWidth="1"/>
+    <col min="3" max="3" width="21.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -7795,19 +7795,19 @@
       <selection activeCell="A2" sqref="A2:D67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" customWidth="1"/>
-    <col min="7" max="7" width="13.21875" customWidth="1"/>
-    <col min="8" max="8" width="15.44140625" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" customWidth="1"/>
+    <col min="4" max="4" width="18.625" customWidth="1"/>
+    <col min="5" max="5" width="14.5" customWidth="1"/>
+    <col min="6" max="6" width="12.875" customWidth="1"/>
+    <col min="7" max="7" width="13.25" customWidth="1"/>
+    <col min="8" max="8" width="15.5" customWidth="1"/>
+    <col min="9" max="9" width="10.375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="10.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -8467,13 +8467,13 @@
       <selection activeCell="A2" sqref="A2:E158"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.44140625" customWidth="1"/>
+    <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -11179,9 +11179,9 @@
       <selection activeCell="A2" sqref="A2:C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -11532,14 +11532,14 @@
       <selection activeCell="A2" sqref="A2:M409"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="2" width="12.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" customWidth="1"/>
-    <col min="7" max="7" width="16.21875" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.33203125" customWidth="1"/>
+    <col min="1" max="2" width="12.625" customWidth="1"/>
+    <col min="6" max="6" width="14.125" customWidth="1"/>
+    <col min="7" max="7" width="16.25" customWidth="1"/>
+    <col min="8" max="8" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.375" customWidth="1"/>
     <col min="11" max="11" width="9" customWidth="1"/>
     <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
   </cols>
@@ -22789,10 +22789,10 @@
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -23594,11 +23594,11 @@
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.88671875" customWidth="1"/>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -23688,7 +23688,7 @@
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="4" t="s">
